--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -17,46 +17,47 @@
     <sheet name="rent_centralizedList" sheetId="39" r:id="rId3"/>
     <sheet name="subscribe_lists" sheetId="17" r:id="rId4"/>
     <sheet name="rent_sign_index" sheetId="40" r:id="rId5"/>
-    <sheet name="test_login" sheetId="3" r:id="rId6"/>
-    <sheet name="test_get_sms" sheetId="4" r:id="rId7"/>
-    <sheet name="test_modify_pwd" sheetId="2" r:id="rId8"/>
-    <sheet name="account_info" sheetId="1" r:id="rId9"/>
-    <sheet name="user_avatar" sheetId="5" r:id="rId10"/>
-    <sheet name="signature" sheetId="6" r:id="rId11"/>
-    <sheet name="version_update" sheetId="7" r:id="rId12"/>
-    <sheet name="add_client" sheetId="8" r:id="rId13"/>
-    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId14"/>
-    <sheet name="guanjia_community_list" sheetId="15" r:id="rId15"/>
-    <sheet name="guanjia_home_total" sheetId="16" r:id="rId16"/>
-    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId17"/>
-    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId18"/>
-    <sheet name="subscribe_handle" sheetId="21" r:id="rId19"/>
-    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId20"/>
-    <sheet name="urge_meter" sheetId="23" r:id="rId21"/>
-    <sheet name="urge_lists" sheetId="24" r:id="rId22"/>
-    <sheet name="repair_info" sheetId="25" r:id="rId23"/>
-    <sheet name="repair_lists" sheetId="26" r:id="rId24"/>
-    <sheet name="repair_logs" sheetId="27" r:id="rId25"/>
-    <sheet name="repair_handle" sheetId="30" r:id="rId26"/>
-    <sheet name="repair_doHandle" sheetId="29" r:id="rId27"/>
-    <sheet name="repair_state" sheetId="28" r:id="rId28"/>
-    <sheet name="urge_signing" sheetId="32" r:id="rId29"/>
-    <sheet name="relet_add" sheetId="31" r:id="rId30"/>
-    <sheet name="relet_doadd" sheetId="37" r:id="rId31"/>
-    <sheet name="urge_checkout" sheetId="36" r:id="rId32"/>
-    <sheet name="urge_docheckout" sheetId="38" r:id="rId33"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId34"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId35"/>
-    <sheet name="account_info_guanjia" sheetId="14" r:id="rId36"/>
-    <sheet name="sign_select_customer" sheetId="11" r:id="rId37"/>
-    <sheet name="rent_scatSearch" sheetId="13" r:id="rId38"/>
+    <sheet name="rent_userlist" sheetId="41" r:id="rId6"/>
+    <sheet name="test_login" sheetId="3" r:id="rId7"/>
+    <sheet name="test_get_sms" sheetId="4" r:id="rId8"/>
+    <sheet name="test_modify_pwd" sheetId="2" r:id="rId9"/>
+    <sheet name="account_info" sheetId="1" r:id="rId10"/>
+    <sheet name="user_avatar" sheetId="5" r:id="rId11"/>
+    <sheet name="signature" sheetId="6" r:id="rId12"/>
+    <sheet name="version_update" sheetId="7" r:id="rId13"/>
+    <sheet name="add_client" sheetId="8" r:id="rId14"/>
+    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId15"/>
+    <sheet name="guanjia_community_list" sheetId="15" r:id="rId16"/>
+    <sheet name="guanjia_home_total" sheetId="16" r:id="rId17"/>
+    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId18"/>
+    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId19"/>
+    <sheet name="subscribe_handle" sheetId="21" r:id="rId20"/>
+    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId21"/>
+    <sheet name="urge_meter" sheetId="23" r:id="rId22"/>
+    <sheet name="urge_lists" sheetId="24" r:id="rId23"/>
+    <sheet name="repair_info" sheetId="25" r:id="rId24"/>
+    <sheet name="repair_lists" sheetId="26" r:id="rId25"/>
+    <sheet name="repair_logs" sheetId="27" r:id="rId26"/>
+    <sheet name="repair_handle" sheetId="30" r:id="rId27"/>
+    <sheet name="repair_doHandle" sheetId="29" r:id="rId28"/>
+    <sheet name="repair_state" sheetId="28" r:id="rId29"/>
+    <sheet name="urge_signing" sheetId="32" r:id="rId30"/>
+    <sheet name="relet_add" sheetId="31" r:id="rId31"/>
+    <sheet name="relet_doadd" sheetId="37" r:id="rId32"/>
+    <sheet name="urge_checkout" sheetId="36" r:id="rId33"/>
+    <sheet name="urge_docheckout" sheetId="38" r:id="rId34"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId36"/>
+    <sheet name="account_info_guanjia" sheetId="14" r:id="rId37"/>
+    <sheet name="sign_select_customer" sheetId="11" r:id="rId38"/>
+    <sheet name="rent_scatSearch" sheetId="13" r:id="rId39"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="205">
   <si>
     <t>get</t>
   </si>
@@ -1087,6 +1088,54 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-选择租客
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/common/userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_userlist_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1784,6 +1833,117 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1878,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1959,7 +2119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2040,7 +2200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -2153,7 +2313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2236,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2319,7 +2479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2402,7 +2562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2485,7 +2645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2568,7 +2728,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2648,90 +2891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2811,7 +2971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2892,7 +3052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2972,7 +3132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3052,7 +3212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3133,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3214,7 +3374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3294,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3374,7 +3534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3455,7 +3615,92 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.75" style="27" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="32.125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="14.875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3535,92 +3780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.75" style="27" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="32.125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="14.875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3700,7 +3860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3781,7 +3941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3862,7 +4022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3944,7 +4104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4024,7 +4184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4039,7 +4199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4123,7 +4283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4205,7 +4365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4291,8 +4451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4300,13 +4460,13 @@
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="48.875" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -4328,11 +4488,11 @@
       <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
+      <c r="H1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4346,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>191</v>
@@ -4375,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4393,7 +4553,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
@@ -4415,11 +4575,11 @@
       <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>25</v>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4487,6 +4647,91 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="24.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="39" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4629,7 +4874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -4751,7 +4996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -4924,115 +5169,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="29.375" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -18,46 +18,50 @@
     <sheet name="subscribe_lists" sheetId="17" r:id="rId4"/>
     <sheet name="rent_sign_index" sheetId="40" r:id="rId5"/>
     <sheet name="rent_userlist" sheetId="41" r:id="rId6"/>
-    <sheet name="test_login" sheetId="3" r:id="rId7"/>
-    <sheet name="test_get_sms" sheetId="4" r:id="rId8"/>
-    <sheet name="test_modify_pwd" sheetId="2" r:id="rId9"/>
-    <sheet name="account_info" sheetId="1" r:id="rId10"/>
-    <sheet name="user_avatar" sheetId="5" r:id="rId11"/>
-    <sheet name="signature" sheetId="6" r:id="rId12"/>
-    <sheet name="version_update" sheetId="7" r:id="rId13"/>
-    <sheet name="add_client" sheetId="8" r:id="rId14"/>
-    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId15"/>
-    <sheet name="guanjia_community_list" sheetId="15" r:id="rId16"/>
-    <sheet name="guanjia_home_total" sheetId="16" r:id="rId17"/>
-    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId18"/>
-    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId19"/>
-    <sheet name="subscribe_handle" sheetId="21" r:id="rId20"/>
-    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId21"/>
-    <sheet name="urge_meter" sheetId="23" r:id="rId22"/>
-    <sheet name="urge_lists" sheetId="24" r:id="rId23"/>
-    <sheet name="repair_info" sheetId="25" r:id="rId24"/>
-    <sheet name="repair_lists" sheetId="26" r:id="rId25"/>
-    <sheet name="repair_logs" sheetId="27" r:id="rId26"/>
-    <sheet name="repair_handle" sheetId="30" r:id="rId27"/>
-    <sheet name="repair_doHandle" sheetId="29" r:id="rId28"/>
-    <sheet name="repair_state" sheetId="28" r:id="rId29"/>
-    <sheet name="urge_signing" sheetId="32" r:id="rId30"/>
-    <sheet name="relet_add" sheetId="31" r:id="rId31"/>
-    <sheet name="relet_doadd" sheetId="37" r:id="rId32"/>
-    <sheet name="urge_checkout" sheetId="36" r:id="rId33"/>
-    <sheet name="urge_docheckout" sheetId="38" r:id="rId34"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId35"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId36"/>
-    <sheet name="account_info_guanjia" sheetId="14" r:id="rId37"/>
-    <sheet name="sign_select_customer" sheetId="11" r:id="rId38"/>
-    <sheet name="rent_scatSearch" sheetId="13" r:id="rId39"/>
+    <sheet name="rent_book_create" sheetId="42" r:id="rId7"/>
+    <sheet name="rent_book_docreate" sheetId="43" r:id="rId8"/>
+    <sheet name="rent_sign_bill" sheetId="45" r:id="rId9"/>
+    <sheet name="rent_sign_submit" sheetId="44" r:id="rId10"/>
+    <sheet name="test_login" sheetId="3" r:id="rId11"/>
+    <sheet name="test_get_sms" sheetId="4" r:id="rId12"/>
+    <sheet name="test_modify_pwd" sheetId="2" r:id="rId13"/>
+    <sheet name="account_info" sheetId="1" r:id="rId14"/>
+    <sheet name="user_avatar" sheetId="5" r:id="rId15"/>
+    <sheet name="signature" sheetId="6" r:id="rId16"/>
+    <sheet name="version_update" sheetId="7" r:id="rId17"/>
+    <sheet name="add_client" sheetId="8" r:id="rId18"/>
+    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId19"/>
+    <sheet name="guanjia_community_list" sheetId="15" r:id="rId20"/>
+    <sheet name="guanjia_home_total" sheetId="16" r:id="rId21"/>
+    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId22"/>
+    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId23"/>
+    <sheet name="subscribe_handle" sheetId="21" r:id="rId24"/>
+    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId25"/>
+    <sheet name="urge_meter" sheetId="23" r:id="rId26"/>
+    <sheet name="urge_lists" sheetId="24" r:id="rId27"/>
+    <sheet name="repair_info" sheetId="25" r:id="rId28"/>
+    <sheet name="repair_lists" sheetId="26" r:id="rId29"/>
+    <sheet name="repair_logs" sheetId="27" r:id="rId30"/>
+    <sheet name="repair_handle" sheetId="30" r:id="rId31"/>
+    <sheet name="repair_doHandle" sheetId="29" r:id="rId32"/>
+    <sheet name="repair_state" sheetId="28" r:id="rId33"/>
+    <sheet name="urge_signing" sheetId="32" r:id="rId34"/>
+    <sheet name="relet_add" sheetId="31" r:id="rId35"/>
+    <sheet name="relet_doadd" sheetId="37" r:id="rId36"/>
+    <sheet name="urge_checkout" sheetId="36" r:id="rId37"/>
+    <sheet name="urge_docheckout" sheetId="38" r:id="rId38"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId39"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId40"/>
+    <sheet name="account_info_guanjia" sheetId="14" r:id="rId41"/>
+    <sheet name="sign_select_customer" sheetId="11" r:id="rId42"/>
+    <sheet name="rent_scatSearch" sheetId="13" r:id="rId43"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="227">
   <si>
     <t>get</t>
   </si>
@@ -1082,52 +1086,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>管家-出租-选择租客
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/common/userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_userlist_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/booking/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-签约-预定添加
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_book_create_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_userlist_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-选择租客
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":101
+"keyword":"18211078890"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管家-出租-选择租客
+    <t>管家-出租-签约-预定提交
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rent/common/userList</t>
+    <t>/rent/booking/doCreate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>guanjia_rent
-_userlist_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-Msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-Msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect
-State</t>
+_book_docreate_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-签约-提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/sign/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_sign_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-签约-账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/sign/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_sign_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户未通过认证不能签约</t>
+  </si>
+  <si>
+    <t>guanjia_rent
+_sign_submit_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1135,7 +1222,91 @@
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
-"timestamp":""
+"timestamp":"",
+"house_id":102
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":102
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":102,
+"user_id":21,
+"amount":"1000",
+"sign_date":"2017-12-6",
+"keep_day":7
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":102,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"payment_type":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":102,
+"user_id":21,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":102,
+"user_id":15658,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-1-5",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1677,7 +1848,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1832,6 +2003,571 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="20.625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2010</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>91006</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="17.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -1942,7 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -2038,7 +2774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2119,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2200,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -2313,7 +3049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2387,338 +3123,6 @@
       </c>
       <c r="I2" s="8" t="s">
         <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="48.375" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>106</v>
@@ -2812,6 +3216,338 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="48.375" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2891,7 +3627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2971,7 +3707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3047,328 +3783,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3421,10 +3835,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>128</v>
@@ -3433,10 +3847,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3449,7 +3863,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3459,87 +3873,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3581,10 +3915,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>128</v>
@@ -3593,10 +3927,90 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3662,7 +4076,7 @@
         <v>105</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
@@ -3701,6 +4115,328 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3780,7 +4516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3860,7 +4596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3941,7 +4677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4022,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4104,7 +4840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4184,7 +4920,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4199,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4283,7 +5103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4365,7 +5185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4447,96 +5267,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="40.625" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4579,7 +5315,7 @@
         <v>105</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4599,7 +5335,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4648,10 +5384,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4690,7 +5426,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>106</v>
@@ -4698,10 +5434,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1</v>
@@ -4710,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4722,18 +5458,48 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -4741,432 +5507,247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="24.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1101</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>91006</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="24.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15" t="s">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="17.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="20.625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15" t="s">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -22,46 +22,53 @@
     <sheet name="rent_book_docreate" sheetId="43" r:id="rId8"/>
     <sheet name="rent_sign_bill" sheetId="45" r:id="rId9"/>
     <sheet name="rent_sign_submit" sheetId="44" r:id="rId10"/>
-    <sheet name="test_login" sheetId="3" r:id="rId11"/>
-    <sheet name="test_get_sms" sheetId="4" r:id="rId12"/>
-    <sheet name="test_modify_pwd" sheetId="2" r:id="rId13"/>
-    <sheet name="account_info" sheetId="1" r:id="rId14"/>
-    <sheet name="user_avatar" sheetId="5" r:id="rId15"/>
-    <sheet name="signature" sheetId="6" r:id="rId16"/>
-    <sheet name="version_update" sheetId="7" r:id="rId17"/>
-    <sheet name="add_client" sheetId="8" r:id="rId18"/>
-    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId19"/>
-    <sheet name="guanjia_community_list" sheetId="15" r:id="rId20"/>
-    <sheet name="guanjia_home_total" sheetId="16" r:id="rId21"/>
-    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId22"/>
-    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId23"/>
-    <sheet name="subscribe_handle" sheetId="21" r:id="rId24"/>
-    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId25"/>
-    <sheet name="urge_meter" sheetId="23" r:id="rId26"/>
-    <sheet name="urge_lists" sheetId="24" r:id="rId27"/>
-    <sheet name="repair_info" sheetId="25" r:id="rId28"/>
-    <sheet name="repair_lists" sheetId="26" r:id="rId29"/>
-    <sheet name="repair_logs" sheetId="27" r:id="rId30"/>
-    <sheet name="repair_handle" sheetId="30" r:id="rId31"/>
-    <sheet name="repair_doHandle" sheetId="29" r:id="rId32"/>
-    <sheet name="repair_state" sheetId="28" r:id="rId33"/>
-    <sheet name="urge_signing" sheetId="32" r:id="rId34"/>
-    <sheet name="relet_add" sheetId="31" r:id="rId35"/>
-    <sheet name="relet_doadd" sheetId="37" r:id="rId36"/>
-    <sheet name="urge_checkout" sheetId="36" r:id="rId37"/>
-    <sheet name="urge_docheckout" sheetId="38" r:id="rId38"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId39"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId40"/>
-    <sheet name="account_info_guanjia" sheetId="14" r:id="rId41"/>
-    <sheet name="sign_select_customer" sheetId="11" r:id="rId42"/>
-    <sheet name="rent_scatSearch" sheetId="13" r:id="rId43"/>
+    <sheet name="rent_reside_index" sheetId="46" r:id="rId11"/>
+    <sheet name="rent_reside_checkuser" sheetId="48" r:id="rId12"/>
+    <sheet name="rent_reside_bill" sheetId="49" r:id="rId13"/>
+    <sheet name="rent_reside_submit" sheetId="50" r:id="rId14"/>
+    <sheet name="rent_change_index" sheetId="47" r:id="rId15"/>
+    <sheet name="Sheet9" sheetId="52" r:id="rId16"/>
+    <sheet name="Sheet8" sheetId="51" r:id="rId17"/>
+    <sheet name="test_login" sheetId="3" r:id="rId18"/>
+    <sheet name="test_get_sms" sheetId="4" r:id="rId19"/>
+    <sheet name="test_modify_pwd" sheetId="2" r:id="rId20"/>
+    <sheet name="account_info" sheetId="1" r:id="rId21"/>
+    <sheet name="user_avatar" sheetId="5" r:id="rId22"/>
+    <sheet name="signature" sheetId="6" r:id="rId23"/>
+    <sheet name="version_update" sheetId="7" r:id="rId24"/>
+    <sheet name="add_client" sheetId="8" r:id="rId25"/>
+    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId26"/>
+    <sheet name="guanjia_community_list" sheetId="15" r:id="rId27"/>
+    <sheet name="guanjia_home_total" sheetId="16" r:id="rId28"/>
+    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId29"/>
+    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId30"/>
+    <sheet name="subscribe_handle" sheetId="21" r:id="rId31"/>
+    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId32"/>
+    <sheet name="urge_meter" sheetId="23" r:id="rId33"/>
+    <sheet name="urge_lists" sheetId="24" r:id="rId34"/>
+    <sheet name="repair_info" sheetId="25" r:id="rId35"/>
+    <sheet name="repair_lists" sheetId="26" r:id="rId36"/>
+    <sheet name="repair_logs" sheetId="27" r:id="rId37"/>
+    <sheet name="repair_handle" sheetId="30" r:id="rId38"/>
+    <sheet name="repair_doHandle" sheetId="29" r:id="rId39"/>
+    <sheet name="repair_state" sheetId="28" r:id="rId40"/>
+    <sheet name="urge_signing" sheetId="32" r:id="rId41"/>
+    <sheet name="relet_add" sheetId="31" r:id="rId42"/>
+    <sheet name="relet_doadd" sheetId="37" r:id="rId43"/>
+    <sheet name="urge_checkout" sheetId="36" r:id="rId44"/>
+    <sheet name="urge_docheckout" sheetId="38" r:id="rId45"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId46"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId47"/>
+    <sheet name="account_info_guanjia" sheetId="14" r:id="rId48"/>
+    <sheet name="sign_select_customer" sheetId="11" r:id="rId49"/>
+    <sheet name="rent_scatSearch" sheetId="13" r:id="rId50"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="251">
   <si>
     <t>get</t>
   </si>
@@ -1264,6 +1271,66 @@
 "end_date":"2018-12-5",
 "payment_type":2
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":102,
+"user_id":15658,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-1-5",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/reside/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-入住-首页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_reside_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-入住-校验是否可入住
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/reside/checkUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_reside_checkuser_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1289,24 +1356,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>客户已存在入住，不可办理入住</t>
+  </si>
+  <si>
+    <t>管家-出租-入住-账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/reside/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_reside_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":102,
-"user_id":15658,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-1-5",
-"payment_type":2,
-"is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
+"start_date":"2017-09-13",
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/reside/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-入住-提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_reside_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"user_list":[
+         {
+            "user_id":566,
+            "start_date":"2017-07-11",
+            "end_date":"2017-11-30",
+            "first_end":"2017-07-20",
+            "is_fixed":1,
+            "is_deposit":0,
+            "payment_day":"10",
+            "fee_list": [
+                 {
+                    "fee_id":1,
+                    "mode_id":2,
+                    "amount":50
+                },
+                 {
+                    "fee_id":1,
+                    "mode_id":3,
+                    "amount":50,
+                    "meter":10,
+                    "subtract_meter":10
+                }
+            ],
+            "facility": [
+                 {
+                    "id":1,
+                    "number":2
+                },
+                 {
+                    "id":2,
+                    "number":3
+                }
+            ]
+        }],
 "admin_id":15658,
-"advance_month":1,
-"payment_day":5,
-"facility":[]
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"user_id":566,
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"user_id":21,
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-首页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":102
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2006,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2069,7 +2256,7 @@
         <v>214</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -2098,7 +2285,7 @@
         <v>214</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -2128,6 +2315,488 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="20.625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2105</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="49.5" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2270,7 +2939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -2387,746 +3056,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="17.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="29.375" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="34.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3217,6 +3146,746 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="17.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="34.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3298,7 +3967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3381,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3459,571 +4128,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4119,7 +4223,250 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4161,10 +4508,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>128</v>
@@ -4173,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4189,13 +4536,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4242,10 +4589,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>128</v>
@@ -4254,10 +4601,90 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>130</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4275,7 +4702,249 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4351,571 +5020,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="14.75" style="27" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5006,6 +5110,571 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="14.75" style="27" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5019,7 +5688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5103,7 +5772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5181,88 +5850,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5378,6 +5965,88 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5672,7 +6341,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -27,48 +27,52 @@
     <sheet name="rent_reside_bill" sheetId="49" r:id="rId13"/>
     <sheet name="rent_reside_submit" sheetId="50" r:id="rId14"/>
     <sheet name="rent_change_index" sheetId="47" r:id="rId15"/>
-    <sheet name="Sheet9" sheetId="52" r:id="rId16"/>
-    <sheet name="Sheet8" sheetId="51" r:id="rId17"/>
-    <sheet name="test_login" sheetId="3" r:id="rId18"/>
-    <sheet name="test_get_sms" sheetId="4" r:id="rId19"/>
-    <sheet name="test_modify_pwd" sheetId="2" r:id="rId20"/>
-    <sheet name="account_info" sheetId="1" r:id="rId21"/>
-    <sheet name="user_avatar" sheetId="5" r:id="rId22"/>
-    <sheet name="signature" sheetId="6" r:id="rId23"/>
-    <sheet name="version_update" sheetId="7" r:id="rId24"/>
-    <sheet name="add_client" sheetId="8" r:id="rId25"/>
-    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId26"/>
-    <sheet name="guanjia_community_list" sheetId="15" r:id="rId27"/>
-    <sheet name="guanjia_home_total" sheetId="16" r:id="rId28"/>
-    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId29"/>
-    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId30"/>
-    <sheet name="subscribe_handle" sheetId="21" r:id="rId31"/>
-    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId32"/>
-    <sheet name="urge_meter" sheetId="23" r:id="rId33"/>
-    <sheet name="urge_lists" sheetId="24" r:id="rId34"/>
-    <sheet name="repair_info" sheetId="25" r:id="rId35"/>
-    <sheet name="repair_lists" sheetId="26" r:id="rId36"/>
-    <sheet name="repair_logs" sheetId="27" r:id="rId37"/>
-    <sheet name="repair_handle" sheetId="30" r:id="rId38"/>
-    <sheet name="repair_doHandle" sheetId="29" r:id="rId39"/>
-    <sheet name="repair_state" sheetId="28" r:id="rId40"/>
-    <sheet name="urge_signing" sheetId="32" r:id="rId41"/>
-    <sheet name="relet_add" sheetId="31" r:id="rId42"/>
-    <sheet name="relet_doadd" sheetId="37" r:id="rId43"/>
-    <sheet name="urge_checkout" sheetId="36" r:id="rId44"/>
-    <sheet name="urge_docheckout" sheetId="38" r:id="rId45"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId46"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId47"/>
-    <sheet name="account_info_guanjia" sheetId="14" r:id="rId48"/>
-    <sheet name="sign_select_customer" sheetId="11" r:id="rId49"/>
-    <sheet name="rent_scatSearch" sheetId="13" r:id="rId50"/>
+    <sheet name="rent_change_house" sheetId="53" r:id="rId16"/>
+    <sheet name="rent_change_bill" sheetId="52" r:id="rId17"/>
+    <sheet name="rent_change_check" sheetId="54" r:id="rId18"/>
+    <sheet name="rent_change_submit" sheetId="55" r:id="rId19"/>
+    <sheet name="Sheet6" sheetId="56" r:id="rId20"/>
+    <sheet name="Sheet8" sheetId="51" r:id="rId21"/>
+    <sheet name="test_login" sheetId="3" r:id="rId22"/>
+    <sheet name="test_get_sms" sheetId="4" r:id="rId23"/>
+    <sheet name="test_modify_pwd" sheetId="2" r:id="rId24"/>
+    <sheet name="account_info" sheetId="1" r:id="rId25"/>
+    <sheet name="user_avatar" sheetId="5" r:id="rId26"/>
+    <sheet name="signature" sheetId="6" r:id="rId27"/>
+    <sheet name="version_update" sheetId="7" r:id="rId28"/>
+    <sheet name="add_client" sheetId="8" r:id="rId29"/>
+    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId30"/>
+    <sheet name="guanjia_community_list" sheetId="15" r:id="rId31"/>
+    <sheet name="guanjia_home_total" sheetId="16" r:id="rId32"/>
+    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId33"/>
+    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId34"/>
+    <sheet name="subscribe_handle" sheetId="21" r:id="rId35"/>
+    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId36"/>
+    <sheet name="urge_meter" sheetId="23" r:id="rId37"/>
+    <sheet name="urge_lists" sheetId="24" r:id="rId38"/>
+    <sheet name="repair_info" sheetId="25" r:id="rId39"/>
+    <sheet name="repair_lists" sheetId="26" r:id="rId40"/>
+    <sheet name="repair_logs" sheetId="27" r:id="rId41"/>
+    <sheet name="repair_handle" sheetId="30" r:id="rId42"/>
+    <sheet name="repair_doHandle" sheetId="29" r:id="rId43"/>
+    <sheet name="repair_state" sheetId="28" r:id="rId44"/>
+    <sheet name="urge_signing" sheetId="32" r:id="rId45"/>
+    <sheet name="relet_add" sheetId="31" r:id="rId46"/>
+    <sheet name="relet_doadd" sheetId="37" r:id="rId47"/>
+    <sheet name="urge_checkout" sheetId="36" r:id="rId48"/>
+    <sheet name="urge_docheckout" sheetId="38" r:id="rId49"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId50"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId51"/>
+    <sheet name="account_info_guanjia" sheetId="14" r:id="rId52"/>
+    <sheet name="sign_select_customer" sheetId="11" r:id="rId53"/>
+    <sheet name="rent_scatSearch" sheetId="13" r:id="rId54"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="279">
   <si>
     <t>get</t>
   </si>
@@ -1447,6 +1451,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"user_id":21,
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-首页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
@@ -1458,42 +1491,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"user_id":21,
-"house_id":101
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/change/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-换房-首页
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_index_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"house_id":102
+"house_id":1636124
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":16363070
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间信息不存在</t>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_index_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原房间存在未完成订单</t>
+  </si>
+  <si>
+    <t>/rent/change/house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_house_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-选择房间
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636307,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363070,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间状态异常</t>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_bill_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_bill_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636306,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-费用结算
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_check_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363060,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"new_house_id":1636306,
+"house_id":1636307,
+"house_status":2,
+"reside_list":[],
+"new_facility":[],
+"waiting_days":1
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2404,7 +2589,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2466,16 +2651,16 @@
         <v>231</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -2495,7 +2680,7 @@
         <v>231</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -2519,7 +2704,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2604,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2687,9 +2872,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2735,12 +2920,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1</v>
@@ -2749,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -2762,6 +2947,64 @@
       </c>
       <c r="I2" s="32" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2502</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2772,26 +3015,228 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2002</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2801,263 +3246,230 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1101</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>91006</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3146,6 +3558,299 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>91006</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3319,7 +4024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -3430,7 +4135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3526,7 +4231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3607,7 +4312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3688,7 +4393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3791,338 +4496,6 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="48.375" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4223,6 +4596,338 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="48.375" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4301,7 +5006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4381,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4461,7 +5166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4537,328 +5242,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4911,10 +5294,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>128</v>
@@ -4923,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4939,7 +5322,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4949,14 +5332,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4991,22 +5374,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5113,6 +5496,328 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5189,7 +5894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5269,7 +5974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5349,7 +6054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5430,7 +6135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5511,7 +6216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5585,267 +6290,6 @@
       </c>
       <c r="I2" s="32" t="s">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5974,6 +6418,267 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1553,17 +1553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rent/change/bill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1679,6 +1668,17 @@
 "reside_list":[],
 "new_facility":[],
 "waiting_days":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636308
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2874,7 +2874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2937,7 +2937,7 @@
         <v>246</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -3162,27 +3162,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>269</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>124</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>124</v>
@@ -3220,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -3305,27 +3305,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>269</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>124</v>
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -3370,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>276</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>277</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="280">
   <si>
     <t>get</t>
   </si>
@@ -1677,8 +1677,19 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
+"new_house_id":1636306,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
 "admin_id":15658,
-"house_id":1636308
+"house_id":1636307
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2874,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2937,7 +2948,7 @@
         <v>246</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3102,7 +3113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3245,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3308,7 +3319,7 @@
         <v>270</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -31,48 +31,62 @@
     <sheet name="rent_change_bill" sheetId="52" r:id="rId17"/>
     <sheet name="rent_change_check" sheetId="54" r:id="rId18"/>
     <sheet name="rent_change_submit" sheetId="55" r:id="rId19"/>
-    <sheet name="Sheet6" sheetId="56" r:id="rId20"/>
-    <sheet name="Sheet8" sheetId="51" r:id="rId21"/>
-    <sheet name="test_login" sheetId="3" r:id="rId22"/>
-    <sheet name="test_get_sms" sheetId="4" r:id="rId23"/>
-    <sheet name="test_modify_pwd" sheetId="2" r:id="rId24"/>
-    <sheet name="account_info" sheetId="1" r:id="rId25"/>
-    <sheet name="user_avatar" sheetId="5" r:id="rId26"/>
-    <sheet name="signature" sheetId="6" r:id="rId27"/>
-    <sheet name="version_update" sheetId="7" r:id="rId28"/>
-    <sheet name="add_client" sheetId="8" r:id="rId29"/>
-    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId30"/>
-    <sheet name="guanjia_community_list" sheetId="15" r:id="rId31"/>
-    <sheet name="guanjia_home_total" sheetId="16" r:id="rId32"/>
-    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId33"/>
-    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId34"/>
-    <sheet name="subscribe_handle" sheetId="21" r:id="rId35"/>
-    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId36"/>
-    <sheet name="urge_meter" sheetId="23" r:id="rId37"/>
-    <sheet name="urge_lists" sheetId="24" r:id="rId38"/>
-    <sheet name="repair_info" sheetId="25" r:id="rId39"/>
-    <sheet name="repair_lists" sheetId="26" r:id="rId40"/>
-    <sheet name="repair_logs" sheetId="27" r:id="rId41"/>
-    <sheet name="repair_handle" sheetId="30" r:id="rId42"/>
-    <sheet name="repair_doHandle" sheetId="29" r:id="rId43"/>
-    <sheet name="repair_state" sheetId="28" r:id="rId44"/>
-    <sheet name="urge_signing" sheetId="32" r:id="rId45"/>
-    <sheet name="relet_add" sheetId="31" r:id="rId46"/>
-    <sheet name="relet_doadd" sheetId="37" r:id="rId47"/>
-    <sheet name="urge_checkout" sheetId="36" r:id="rId48"/>
-    <sheet name="urge_docheckout" sheetId="38" r:id="rId49"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId50"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId51"/>
-    <sheet name="account_info_guanjia" sheetId="14" r:id="rId52"/>
-    <sheet name="sign_select_customer" sheetId="11" r:id="rId53"/>
-    <sheet name="rent_scatSearch" sheetId="13" r:id="rId54"/>
+    <sheet name="rent_relet_index" sheetId="56" r:id="rId20"/>
+    <sheet name="rent_relet_bill" sheetId="58" r:id="rId21"/>
+    <sheet name="rent_relet_submit" sheetId="59" r:id="rId22"/>
+    <sheet name="rent_elemeter_currAmount" sheetId="60" r:id="rId23"/>
+    <sheet name="rent_payment_lists" sheetId="61" r:id="rId24"/>
+    <sheet name="rent_payment_meter" sheetId="62" r:id="rId25"/>
+    <sheet name="rent_order_billinfo" sheetId="63" r:id="rId26"/>
+    <sheet name="rent_order_create" sheetId="64" r:id="rId27"/>
+    <sheet name="rent_house_detail" sheetId="65" r:id="rId28"/>
+    <sheet name="rent_house_meter" sheetId="69" r:id="rId29"/>
+    <sheet name="Sheet10" sheetId="70" r:id="rId30"/>
+    <sheet name="Sheet5" sheetId="66" r:id="rId31"/>
+    <sheet name="Sheet6" sheetId="67" r:id="rId32"/>
+    <sheet name="Sheet7" sheetId="68" r:id="rId33"/>
+    <sheet name="Sheet2" sheetId="57" r:id="rId34"/>
+    <sheet name="Sheet8" sheetId="51" r:id="rId35"/>
+    <sheet name="test_login" sheetId="3" r:id="rId36"/>
+    <sheet name="test_get_sms" sheetId="4" r:id="rId37"/>
+    <sheet name="test_modify_pwd" sheetId="2" r:id="rId38"/>
+    <sheet name="account_info" sheetId="1" r:id="rId39"/>
+    <sheet name="user_avatar" sheetId="5" r:id="rId40"/>
+    <sheet name="signature" sheetId="6" r:id="rId41"/>
+    <sheet name="version_update" sheetId="7" r:id="rId42"/>
+    <sheet name="add_client" sheetId="8" r:id="rId43"/>
+    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId44"/>
+    <sheet name="guanjia_community_list" sheetId="15" r:id="rId45"/>
+    <sheet name="guanjia_home_total" sheetId="16" r:id="rId46"/>
+    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId47"/>
+    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId48"/>
+    <sheet name="subscribe_handle" sheetId="21" r:id="rId49"/>
+    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId50"/>
+    <sheet name="urge_meter" sheetId="23" r:id="rId51"/>
+    <sheet name="urge_lists" sheetId="24" r:id="rId52"/>
+    <sheet name="repair_info" sheetId="25" r:id="rId53"/>
+    <sheet name="repair_lists" sheetId="26" r:id="rId54"/>
+    <sheet name="repair_logs" sheetId="27" r:id="rId55"/>
+    <sheet name="repair_handle" sheetId="30" r:id="rId56"/>
+    <sheet name="repair_doHandle" sheetId="29" r:id="rId57"/>
+    <sheet name="repair_state" sheetId="28" r:id="rId58"/>
+    <sheet name="urge_signing" sheetId="32" r:id="rId59"/>
+    <sheet name="relet_add" sheetId="31" r:id="rId60"/>
+    <sheet name="relet_doadd" sheetId="37" r:id="rId61"/>
+    <sheet name="urge_checkout" sheetId="36" r:id="rId62"/>
+    <sheet name="urge_docheckout" sheetId="38" r:id="rId63"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId64"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId65"/>
+    <sheet name="account_info_guanjia" sheetId="14" r:id="rId66"/>
+    <sheet name="sign_select_customer" sheetId="11" r:id="rId67"/>
+    <sheet name="rent_scatSearch" sheetId="13" r:id="rId68"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="332">
   <si>
     <t>get</t>
   </si>
@@ -1024,10 +1038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>出租集中式房态
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1226,16 +1236,6 @@
   <si>
     <t>guanjia_rent
 _sign_submit_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":102
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1311,16 +1311,6 @@
   <si>
     <t>guanjia_rent
 _reside_index_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":101
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1692,6 +1682,357 @@
 "house_id":1636307
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/relet/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-续签-首页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_relet_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原合同整房账单未结清不可续租</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636306
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/relet/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-续签-账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_relet_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"end_date":"2018-11-11",
+"first_end":"",
+"payment_type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/relet/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-续签-提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_relet_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"user_id":566,
+"end_date":"2018-11-11",
+"first_end":"2018-02-11",
+"payment_type":1,
+"is_fixed":0,
+"advance_day":7,
+"shop_id":4,
+"salesman_id":8,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/elemeter/currAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-智能电表可退金额查询
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_elemeter_curramount_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该房间不存在智能电表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/payment/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-费用催缴列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_payment_lists_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"page":1,
+"admin_id":15658,
+"page_size":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/payment/meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-周期抄表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_payment_meter_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/order/billInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单详情
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_order_billinfo_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/order/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_order_create_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单生成催缴订单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"bill_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"bill_id":23,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"bill_id":22,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单不存在或已存在订单</t>
+  </si>
+  <si>
+    <t>/rent/house/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_house_detail_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租房间详情
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":2333333
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间租约策略不存在</t>
+  </si>
+  <si>
+    <t>/rent/house/meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-抄表记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_house_meter_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23,
+"page":1,
+"page_size":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23333,
+"page":1,
+"page_size":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约信息不存在</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +2180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1950,6 +2291,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2437,10 +2784,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -2449,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -2466,10 +2813,10 @@
     </row>
     <row r="3" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>124</v>
@@ -2478,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -2490,7 +2837,7 @@
         <v>2010</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2562,10 +2909,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1</v>
@@ -2574,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -2647,10 +2994,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1</v>
@@ -2659,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -2671,15 +3018,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>1</v>
@@ -2688,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -2700,7 +3047,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2762,22 +3109,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D2" s="34">
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>236</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>239</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -2800,7 +3147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2848,22 +3195,22 @@
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="30" t="s">
         <v>240</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>243</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -2933,10 +3280,10 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1</v>
@@ -2945,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -2962,10 +3309,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>1</v>
@@ -2974,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -2986,15 +3333,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>1</v>
@@ -3003,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -3015,7 +3362,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3076,22 +3423,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D2" s="34">
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3161,10 +3508,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -3173,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3185,15 +3532,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>124</v>
@@ -3202,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -3214,15 +3561,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>124</v>
@@ -3231,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>260</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>263</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -3243,7 +3590,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3256,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3304,10 +3651,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -3316,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3328,15 +3675,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>124</v>
@@ -3345,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>270</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>273</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -3357,7 +3704,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3382,7 +3729,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3429,10 +3776,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -3441,11 +3788,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>277</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -3453,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3489,7 +3836,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3525,7 +3872,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>106</v>
@@ -3539,7 +3886,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -3548,7 +3895,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3569,18 +3916,1333 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2202</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2002</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="28" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="28.125" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="28" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="28" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23.375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.75" style="27" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="32.125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="14.875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3595,7 +5257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3738,7 +5400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -3860,7 +5522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -4035,7 +5697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -4146,7 +5808,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4242,7 +5988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4323,7 +6069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4404,7 +6150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4517,92 +6263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.75" style="27" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="32.125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="14.875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4685,7 +6346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4768,7 +6429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4851,7 +6512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4934,7 +6595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5017,7 +6678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5097,1224 +6758,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="40.625" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="14.75" style="27" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6357,7 +6806,7 @@
         <v>105</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6377,7 +6826,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6406,7 +6855,7 @@
         <v>72</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6425,6 +6874,649 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6471,10 +7563,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>128</v>
@@ -6483,108 +7575,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6603,25 +7597,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -6643,113 +7635,31 @@
       <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>80</v>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>176</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6758,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +7721,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>106</v>
@@ -6819,10 +7729,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1</v>
@@ -6831,10 +7741,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6848,10 +7758,10 @@
     </row>
     <row r="3" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>207</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>208</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>1</v>
@@ -6863,7 +7773,7 @@
         <v>82</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6879,6 +7789,673 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="14.75" style="27" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6887,7 +8464,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6934,10 +8511,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1</v>
@@ -6946,10 +8523,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7019,10 +8596,10 @@
     </row>
     <row r="2" spans="1:9" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -7031,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7104,10 +8681,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>124</v>
@@ -7116,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="33" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="41" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -50,13 +50,21 @@
     <sheet name="rent_order_add" sheetId="72" r:id="rId36"/>
     <sheet name="rent_order_bill" sheetId="73" r:id="rId37"/>
     <sheet name="rent_order_submit" sheetId="74" r:id="rId38"/>
+    <sheet name="rent_resideout_index" sheetId="76" r:id="rId39"/>
+    <sheet name="rent_resideout_damage" sheetId="77" r:id="rId40"/>
+    <sheet name="rent_resideout_bill" sheetId="78" r:id="rId41"/>
+    <sheet name="rent_resideout_submit" sheetId="79" r:id="rId42"/>
+    <sheet name="rent_checkout_index" sheetId="80" r:id="rId43"/>
+    <sheet name="rent_checkout_bill" sheetId="81" r:id="rId44"/>
+    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId45"/>
+    <sheet name="Sheet9" sheetId="83" r:id="rId46"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="254">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1419,6 +1427,201 @@
       "user_id":21
         }],
 "admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退住-选择住户
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/resideout/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_resideout_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退住-房屋交接
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/resideout/damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_resideout_damage_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/resideout/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_resideout_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退住-费用结算单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/resideout/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退住-提交退住
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_resideout_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":88
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无可操作住户</t>
+  </si>
+  <si>
+    <t>管家-出租-退房-房屋交接
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/checkout/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_checkout_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_checkout_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退房-费用结算单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/checkout/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/checkout/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_checkout_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退房-提交退房
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"reside_list": [681]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"reside_list":[681]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"admin_id":15658,
+"reside_list":[681],
+"reside":[{
+    "reside_id":681
+        }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"admin_id":15658,
+"house":{
+      "out_type":1,
+      "status":3,
+      "tenancy_date":1
+      },
+"reside":[{
+     "reside_id":681
+}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2503,7 +2706,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3863,7 +4066,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3970,7 +4173,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4077,7 +4280,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4202,7 +4405,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5068,7 +5271,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5170,6 +5373,112 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5221,22 +5530,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5272,10 +5581,117 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5327,22 +5743,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5355,120 +5771,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
@@ -5568,6 +5897,655 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="41" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="42" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -57,14 +57,15 @@
     <sheet name="rent_checkout_index" sheetId="80" r:id="rId43"/>
     <sheet name="rent_checkout_bill" sheetId="81" r:id="rId44"/>
     <sheet name="rent_checkout_submit" sheetId="82" r:id="rId45"/>
-    <sheet name="Sheet9" sheetId="83" r:id="rId46"/>
+    <sheet name="rent_home_signing" sheetId="83" r:id="rId46"/>
+    <sheet name="rent_repair_lists" sheetId="84" r:id="rId47"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="262">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1622,6 +1623,64 @@
 "reside":[{
      "reside_id":681
 }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/home/signing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-租约到期
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_home_signing_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_no":102,
+"admin_id":15658,
+"community_id":1,
+"days":7,
+"name_mobile":"13521810013",
+"page":1,
+"user_mobile_house_no":"13521810013"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-维修列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/repair/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_repair_lists_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"log_type":5,
+"admin_id":15658,
+"days":7,
+"page":1,
+"user_mobile_house_no":"13521810013"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5483,7 +5542,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5590,7 +5649,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5696,7 +5755,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6011,7 +6070,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6434,8 +6493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6538,12 +6597,211 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="42" activeTab="46"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="44" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -57,15 +57,18 @@
     <sheet name="rent_checkout_index" sheetId="80" r:id="rId43"/>
     <sheet name="rent_checkout_bill" sheetId="81" r:id="rId44"/>
     <sheet name="rent_checkout_submit" sheetId="82" r:id="rId45"/>
-    <sheet name="rent_home_signing" sheetId="83" r:id="rId46"/>
-    <sheet name="rent_repair_lists" sheetId="84" r:id="rId47"/>
+    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId46"/>
+    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId47"/>
+    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId48"/>
+    <sheet name="rent_home_signing" sheetId="83" r:id="rId49"/>
+    <sheet name="rent_repair_lists" sheetId="84" r:id="rId50"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="275">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1681,6 +1684,97 @@
 "days":7,
 "page":1,
 "user_mobile_house_no":"13521810013"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-编辑退房-房屋交接
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_echeckout_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/echeckout/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_echeckout_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-编辑退房-费用结算单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/echeckout/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":8320
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_echeckout_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-编辑退房-提交退房
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/echeckout/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":8320
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":8320,
+"admin_id":15658,
+"house":{
+      "out_type":1,
+      "status":3,
+      "tenancy_date":1
+      },
+"reside":[{
+     "reside_id":681
+}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4339,7 +4433,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6282,7 +6376,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6344,7 +6438,7 @@
         <v>240</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6384,6 +6478,219 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6435,22 +6742,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6489,12 +6796,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6539,12 +6846,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6553,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6595,12 +6902,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6609,7 +6916,7 @@
     <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
     <col min="3" max="4" width="9" style="16"/>
     <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
@@ -6647,22 +6954,22 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6701,11 +7008,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6753,10 +7060,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>114</v>
@@ -6765,10 +7072,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6922,6 +7229,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="44" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="45" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -6906,7 +6906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -7012,7 +7012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="45" activeTab="48"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="276">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rent/common/userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_rent
 _userlist_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,15 +344,6 @@
   <si>
     <t>Expect
 State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":""
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,17 +428,6 @@
   <si>
     <t>guanjia_rent
 _sign_submit_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":102
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -867,28 +843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636306,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rent/relet/index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1099,10 +1053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1644,22 +1594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_no":102,
-"admin_id":15658,
-"community_id":1,
-"days":7,
-"name_mobile":"13521810013",
-"page":1,
-"user_mobile_house_no":"13521810013"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-出租-维修列表
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1778,12 +1712,78 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":102
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"keyword":"",
+"offset":"",
+"limit":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_no":102,
+"admin_id":15658,
+"community_id":1,
+"days":7,
+"name_mobile":"13521810013",
+"page":1,
+"user_mobile_house_no":"13521810013",
+"community_house_no":"",
+"user_mobile":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/common/userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未缴费至当天不可换房</t>
+  </si>
+  <si>
+    <t>未缴费至当天不可换房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,6 +1862,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1924,7 +1931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2008,6 +2015,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2495,10 +2505,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2507,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2524,10 +2534,10 @@
     </row>
     <row r="3" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -2536,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2548,7 +2558,7 @@
         <v>2010</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2620,10 +2630,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -2632,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2705,10 +2715,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -2717,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2729,15 +2739,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -2746,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2758,7 +2768,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2820,22 +2830,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2906,22 +2916,22 @@
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2944,7 +2954,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2991,10 +3001,10 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3003,27 +3013,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
-      <c r="H2" s="18">
-        <v>0</v>
+      <c r="H2" s="28">
+        <v>2503</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3032,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3044,27 +3054,27 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3073,12 +3083,13 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3134,22 +3145,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3172,6 +3183,149 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2002</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3219,10 +3373,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3231,27 +3385,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
       <c r="H2" s="18">
-        <v>0</v>
+        <v>2503</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3260,10 +3414,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3272,150 +3426,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2001</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3487,10 +3498,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3499,11 +3510,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3511,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3547,7 +3558,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3583,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -3596,8 +3607,8 @@
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>170</v>
+      <c r="C2" t="s">
+        <v>268</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3677,22 +3688,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3701,27 +3712,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3730,27 +3741,27 @@
         <v>2202</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3759,7 +3770,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3820,22 +3831,22 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3844,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3927,23 +3938,23 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3951,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4034,23 +4045,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>155</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4058,15 +4069,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>0</v>
@@ -4075,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4087,7 +4098,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4159,10 +4170,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -4171,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4183,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4266,22 +4277,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4290,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4373,22 +4384,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4397,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4480,10 +4491,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4492,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4504,15 +4515,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4521,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4533,7 +4544,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4605,22 +4616,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4629,27 +4640,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4658,7 +4669,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4730,22 +4741,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4754,27 +4765,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4783,7 +4794,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4850,7 +4861,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
@@ -4861,7 +4872,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4940,10 +4951,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -4952,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4964,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5046,10 +5057,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5058,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5070,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5152,10 +5163,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5164,10 +5175,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5176,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5258,10 +5269,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5270,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5282,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5365,10 +5376,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5377,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5389,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5471,10 +5482,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5483,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5495,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5577,10 +5588,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5589,10 +5600,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5601,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5683,10 +5694,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5695,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5707,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5790,10 +5801,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5802,10 +5813,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5814,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5849,7 +5860,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5896,22 +5907,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5920,27 +5931,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5949,7 +5960,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6011,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -6105,22 +6116,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6129,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6211,22 +6222,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6235,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6317,22 +6328,22 @@
     </row>
     <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6341,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6423,10 +6434,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6435,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6447,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6529,10 +6540,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6541,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6553,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6636,10 +6647,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6648,10 +6659,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6660,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6742,23 +6753,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>269</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6766,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6848,10 +6859,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6860,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6872,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6954,10 +6965,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6966,10 +6977,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6978,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7012,7 +7023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -7022,7 +7033,7 @@
     <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
     <col min="3" max="4" width="9" style="16"/>
     <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
@@ -7058,24 +7069,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7084,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7162,7 +7173,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7182,7 +7193,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7281,22 +7292,22 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7305,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7340,7 +7351,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7379,7 +7390,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -7387,7 +7398,7 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>52</v>
@@ -7399,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7416,10 +7427,10 @@
     </row>
     <row r="3" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -7431,7 +7442,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7455,7 +7466,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7502,10 +7513,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7514,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7540,7 +7551,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7587,10 +7598,10 @@
     </row>
     <row r="2" spans="1:9" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -7599,10 +7610,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7672,10 +7683,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -7684,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -436,21 +436,6 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"admin_id":15658,
-"house_id":102,
-"user_id":21,
-"amount":"1000",
-"sign_date":"2017-12-6",
-"keep_day":7
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
 "house_id":102,
 "start_date":"2017-12-6",
 "end_date":"2018-12-5",
@@ -506,28 +491,6 @@
   <si>
     <t>guanjia_rent
 _reside_checkuser_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":102,
-"user_id":21,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-03-05",
-"payment_type":2,
-"is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
-"advance_month":1,
-"payment_day":5,
-"facility":[]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1776,6 +1739,44 @@
   </si>
   <si>
     <t>未缴费至当天不可换房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":102,
+"user_id":21,
+"amount":"1000",
+"sign_date":"2017-12-6",
+"keep_day":7,
+"remark":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":102,
+"user_id":21,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2457,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2520,7 +2521,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2549,7 +2550,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2630,10 +2631,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -2642,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2715,22 +2716,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2739,27 +2740,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>83</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2768,7 +2769,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2830,22 +2831,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2916,22 +2917,22 @@
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3001,10 +3002,10 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3013,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3025,15 +3026,15 @@
         <v>2503</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3042,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3054,15 +3055,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -3071,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3083,7 +3084,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3145,22 +3146,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3230,10 +3231,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3242,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3254,15 +3255,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3271,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3283,15 +3284,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -3300,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3312,7 +3313,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +3326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3373,10 +3374,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3385,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3397,15 +3398,15 @@
         <v>2503</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3414,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3426,7 +3427,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3498,10 +3499,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3510,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3522,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3608,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3688,22 +3689,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3712,27 +3713,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3741,27 +3742,27 @@
         <v>2202</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3770,7 +3771,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3831,23 +3832,23 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3938,23 +3939,23 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4045,22 +4046,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4069,27 +4070,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4098,7 +4099,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4170,23 +4171,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>154</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4277,22 +4278,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4301,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4384,22 +4385,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4408,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4491,10 +4492,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4503,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4515,15 +4516,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4532,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4544,7 +4545,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4616,23 +4617,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>175</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4640,27 +4641,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4669,7 +4670,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4741,23 +4742,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>181</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4765,27 +4766,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4794,7 +4795,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4872,7 +4873,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4951,11 +4952,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>187</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -4963,11 +4964,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>186</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5057,23 +5058,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>192</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5163,23 +5164,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5269,10 +5270,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5281,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5293,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5376,10 +5377,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5388,10 +5389,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5400,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5482,23 +5483,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>206</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5588,10 +5589,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5600,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5612,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5694,10 +5695,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5706,10 +5707,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5718,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5801,10 +5802,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5813,10 +5814,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5825,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5907,22 +5908,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5931,27 +5932,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5960,7 +5961,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6116,22 +6117,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>223</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6140,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6222,22 +6223,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>225</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6246,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6328,22 +6329,22 @@
     </row>
     <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6352,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6434,10 +6435,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6446,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6458,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6540,10 +6541,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6552,10 +6553,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6564,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6647,10 +6648,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6659,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6671,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6753,22 +6754,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6777,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6859,10 +6860,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6871,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6883,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6965,10 +6966,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6977,11 +6978,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>267</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7071,22 +7072,22 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7095,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7193,7 +7194,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7292,23 +7293,23 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>254</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7410,10 +7411,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7528,7 +7529,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7551,7 +7552,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7613,7 +7614,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7698,7 +7699,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="275">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,19 +428,6 @@
   <si>
     <t>guanjia_rent
 _sign_submit_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":102,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"payment_type":2
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -790,22 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"new_house_id":1636306,
-"house_id":1636307,
-"house_status":2,
-"reside_list":[],
-"new_facility":[],
-"waiting_days":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rent/relet/index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1684,17 +1655,6 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"admin_id":15658,
-"house_id":102
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
 "keyword":"",
 "offset":"",
 "limit":""
@@ -1729,16 +1689,8 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"admin_id":15658,
-"house_id":1636307
+"house_id":1636562
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未缴费至当天不可换房</t>
-  </si>
-  <si>
-    <t>未缴费至当天不可换房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1748,12 +1700,7 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"house_id":102,
-"user_id":21,
-"amount":"1000",
-"sign_date":"2017-12-6",
-"keep_day":7,
-"remark":""
+"house_id":1636562
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1763,7 +1710,36 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":102,
+"admin_id":15658,
+"house_id":1636562,
+"user_id":21,
+"amount":"1000",
+"sign_date":"2017-12-6",
+"keep_day":7,
+"remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636562,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"payment_type":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636562,
 "user_id":21,
 "start_date":"2017-12-6",
 "end_date":"2018-12-5",
@@ -1777,6 +1753,26 @@
 "payment_day":5,
 "facility":[]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"new_house_id":1636306,
+"house_id":1636307,
+"house_status":2,
+"reside_list":[],
+"new_facility":[],
+"waiting_days":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2458,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2521,7 +2517,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2550,7 +2546,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2631,10 +2627,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -2643,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2716,22 +2712,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2740,27 +2736,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2769,7 +2765,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2831,22 +2827,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2917,22 +2913,22 @@
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2955,7 +2951,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3002,10 +2998,10 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3014,27 +3010,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
       <c r="H2" s="28">
-        <v>2503</v>
+        <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3043,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3055,15 +3051,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -3072,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3084,7 +3080,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3146,22 +3142,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3231,10 +3227,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3243,27 +3239,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3272,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3284,15 +3280,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -3301,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3313,7 +3309,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3323,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3374,10 +3370,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3386,27 +3382,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
       <c r="H2" s="18">
-        <v>2503</v>
+        <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3415,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3427,7 +3423,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3451,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3499,10 +3495,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3511,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3523,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3609,7 +3605,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3689,22 +3685,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3713,27 +3709,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3742,27 +3738,27 @@
         <v>2202</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3771,7 +3767,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3832,23 +3828,23 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>138</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3939,23 +3935,23 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3963,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4046,22 +4042,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4070,27 +4066,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4099,7 +4095,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4171,23 +4167,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>152</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4195,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4278,22 +4274,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4302,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4385,22 +4381,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4409,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4492,10 +4488,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4504,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4516,15 +4512,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4533,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4545,7 +4541,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4617,23 +4613,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4641,27 +4637,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>174</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4670,7 +4666,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4742,23 +4738,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>179</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4766,27 +4762,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>180</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4795,7 +4791,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4873,7 +4869,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4952,11 +4948,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>185</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -4964,11 +4960,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4976,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5058,23 +5054,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>190</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5082,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5164,23 +5160,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>194</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5188,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5270,10 +5266,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5282,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5294,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5377,10 +5373,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5389,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5401,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5483,23 +5479,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5589,10 +5585,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5601,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5613,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5695,10 +5691,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5707,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5719,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5802,10 +5798,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5814,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5826,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5908,22 +5904,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>217</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5932,27 +5928,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>217</v>
-      </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5961,7 +5957,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6117,22 +6113,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>221</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6141,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6223,22 +6219,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>223</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6247,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6329,22 +6325,22 @@
     </row>
     <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6353,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6435,10 +6431,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6447,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6459,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6541,10 +6537,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6553,10 +6549,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6565,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6648,10 +6644,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6660,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6672,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6754,22 +6750,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6778,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6860,10 +6856,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6872,10 +6868,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6884,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6966,10 +6962,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6978,11 +6974,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>265</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6990,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7072,22 +7068,22 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7096,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7131,7 +7127,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7194,7 +7190,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7293,23 +7289,23 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -7317,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7352,7 +7348,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7411,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7529,7 +7525,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7552,7 +7548,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7614,7 +7610,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7637,7 +7633,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7699,7 +7695,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="39" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="274">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1383,19 +1383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":88
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无可操作住户</t>
-  </si>
-  <si>
     <t>管家-出租-退房-房屋交接
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1773,6 +1760,16 @@
   </si>
   <si>
     <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":888
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2517,7 +2514,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3394,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3447,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3510,7 +3507,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3605,7 +3602,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -5857,7 +5854,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5919,7 +5916,7 @@
         <v>214</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5948,16 +5945,16 @@
         <v>214</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <v>1000</v>
+        <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6065,7 +6062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6128,7 +6125,7 @@
         <v>218</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6171,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6234,7 +6231,7 @@
         <v>221</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6277,8 +6274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6340,7 +6337,7 @@
         <v>224</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6431,10 +6428,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6443,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6537,10 +6534,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6549,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6644,10 +6641,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6656,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6750,22 +6747,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>253</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6856,10 +6853,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6868,10 +6865,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6962,10 +6959,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6974,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7068,10 +7065,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>108</v>
@@ -7080,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7190,7 +7187,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7289,10 +7286,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>108</v>
@@ -7301,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>250</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7407,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7525,7 +7522,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7610,7 +7607,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7695,7 +7692,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="39" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -423,9 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前用户未通过认证不能签约</t>
-  </si>
-  <si>
     <t>guanjia_rent
 _sign_submit_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1770,6 +1767,10 @@
 "timestamp":"",
 "house_id":888
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在签约记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2451,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2514,7 +2515,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2528,7 +2529,7 @@
     </row>
     <row r="3" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>68</v>
@@ -2543,16 +2544,16 @@
         <v>69</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <v>2010</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>74</v>
+        <v>2005</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2569,6 +2570,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2624,10 +2626,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -2636,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2709,22 +2711,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2733,27 +2735,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>81</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2762,7 +2764,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2824,22 +2826,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2910,22 +2912,22 @@
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2995,10 +2997,10 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3024,10 +3026,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3036,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3048,15 +3050,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -3065,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3139,22 +3141,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>108</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3224,10 +3226,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3236,27 +3238,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3265,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3277,15 +3279,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -3294,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3306,7 +3308,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3367,10 +3369,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3379,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3391,15 +3393,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3408,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3420,7 +3422,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3492,10 +3494,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3504,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3516,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3602,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3682,22 +3684,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3706,27 +3708,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3735,27 +3737,27 @@
         <v>2202</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3764,7 +3766,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3825,23 +3827,23 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>136</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3932,23 +3934,23 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4039,22 +4041,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4063,27 +4065,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4092,7 +4094,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4164,23 +4166,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4271,22 +4273,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4295,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4378,22 +4380,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4402,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,10 +4487,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4497,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4509,15 +4511,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4526,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4538,7 +4540,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4610,23 +4612,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>171</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4634,27 +4636,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4663,7 +4665,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4735,23 +4737,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>177</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4759,27 +4761,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4788,7 +4790,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4866,7 +4868,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4945,23 +4947,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>182</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5051,23 +5053,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>188</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5157,23 +5159,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>192</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5263,11 +5265,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>195</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5275,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5287,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5370,11 +5372,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>198</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5382,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5394,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5476,23 +5478,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>202</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5582,10 +5584,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5594,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5606,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5688,10 +5690,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5700,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5712,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5795,10 +5797,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5807,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5819,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5901,22 +5903,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>214</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5925,27 +5927,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>214</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5954,7 +5956,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6110,22 +6112,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>218</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6134,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6216,22 +6218,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>223</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6240,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6274,7 +6276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6322,22 +6324,22 @@
     </row>
     <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6346,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6380,8 +6382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6428,22 +6430,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>228</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6452,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6534,10 +6536,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6546,10 +6548,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6558,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6641,10 +6643,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>235</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6653,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6665,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6747,22 +6749,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>251</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6771,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6853,10 +6855,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6865,10 +6867,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6877,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6959,10 +6961,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>257</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>258</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6971,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6983,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7065,22 +7067,22 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7089,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7187,7 +7189,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7286,23 +7288,23 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -7310,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7404,10 +7406,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7522,7 +7524,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7607,7 +7609,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7692,7 +7694,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="46" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="273">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,9 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原合同整房账单未结清不可续租</t>
-  </si>
-  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
@@ -1448,17 +1445,6 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":1636343,
-"reside_list": [681]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
 "reside_list":[681]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1642,24 +1628,6 @@
 "keyword":"",
 "offset":"",
 "limit":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_no":102,
-"admin_id":15658,
-"community_id":1,
-"days":7,
-"name_mobile":"13521810013",
-"page":1,
-"user_mobile_house_no":"13521810013",
-"community_house_no":"",
-"user_mobile":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1771,6 +1739,35 @@
   </si>
   <si>
     <t>已存在签约记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"reside_list": [681]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"community_id":1,
+"days":7,
+"name_mobile":"13521810013",
+"page":1,
+"house_no":"102",
+"user_mobile_house_no":"13521810013",
+"community_house_no":"102",
+"user_mobile":"13521810013"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2452,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2515,7 +2512,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2553,7 +2550,7 @@
         <v>2005</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2641,7 +2638,7 @@
         <v>76</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3393,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3509,7 +3506,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3604,7 +3601,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3637,7 +3634,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3682,7 +3679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>127</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>125</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3728,16 +3725,16 @@
         <v>125</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <v>2202</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>128</v>
+        <v>2206</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
@@ -3757,7 +3754,7 @@
         <v>125</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3772,6 +3769,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3827,22 +3825,22 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3934,22 +3932,22 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4041,10 +4039,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>107</v>
@@ -4053,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4070,22 +4068,22 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4094,7 +4092,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4166,22 +4164,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>149</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4273,22 +4271,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4380,22 +4378,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4487,10 +4485,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4499,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4516,10 +4514,10 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4528,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4540,7 +4538,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4612,10 +4610,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>169</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>107</v>
@@ -4624,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4641,10 +4639,10 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>169</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>107</v>
@@ -4653,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4665,7 +4663,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4737,10 +4735,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>107</v>
@@ -4749,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4766,10 +4764,10 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>107</v>
@@ -4778,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4790,7 +4788,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4868,7 +4866,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4947,22 +4945,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>181</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5053,22 +5051,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5159,22 +5157,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5265,11 +5263,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>194</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5277,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5372,11 +5370,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>197</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5384,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5478,22 +5476,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5584,10 +5582,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5596,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5690,10 +5688,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5702,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5797,10 +5795,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>210</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5809,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5856,7 +5854,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5903,22 +5901,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>213</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5932,22 +5930,22 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>213</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6064,7 +6062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6112,22 +6110,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>217</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6167,112 +6165,6 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6322,24 +6214,130 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6430,22 +6428,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>227</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6536,10 +6534,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6548,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6643,10 +6641,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>234</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6655,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6749,22 +6747,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>250</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6855,10 +6853,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6867,10 +6865,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6961,10 +6959,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6973,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>258</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7019,7 +7017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -7067,10 +7065,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>107</v>
@@ -7079,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7189,7 +7187,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7288,10 +7286,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>107</v>
@@ -7300,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7406,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7524,7 +7522,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7609,7 +7607,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7694,7 +7692,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="46" activeTab="48"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -2660,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -7017,7 +7017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -63,12 +63,12 @@
     <sheet name="rent_home_signing" sheetId="83" r:id="rId49"/>
     <sheet name="rent_repair_lists" sheetId="84" r:id="rId50"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="272">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,11 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管家-出租-选择租客
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_rent
 _userlist_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,11 +358,6 @@
   <si>
     <t>guanjia_rent
 _userlist_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-选择租客
--ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -425,28 +415,6 @@
   <si>
     <t>guanjia_rent
 _sign_submit_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":102,
-"user_id":15658,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-1-5",
-"payment_type":2,
-"is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
-"advance_month":1,
-"payment_day":5,
-"facility":[]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1662,22 +1630,6 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"admin_id":15658,
-"house_id":1636562,
-"user_id":21,
-"amount":"1000",
-"sign_date":"2017-12-6",
-"keep_day":7,
-"remark":"备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
 "house_id":1636562,
 "start_date":"2017-12-6",
 "end_date":"2018-12-5",
@@ -1770,6 +1722,49 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>管家-出租签约-选择租客
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636562,
+"user_id":21,
+"amount":"1000",
+"sign_date":"2017-12-6",
+"keep_day":7,
+"remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636562,
+"user_id":15658,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-1-5",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1786,6 +1781,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1833,6 +1829,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2449,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2497,10 +2494,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2509,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2526,10 +2523,10 @@
     </row>
     <row r="3" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -2538,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2550,7 +2547,7 @@
         <v>2005</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2623,10 +2620,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -2635,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2660,7 +2657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2708,10 +2705,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -2720,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2732,15 +2729,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -2749,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2761,7 +2758,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2823,22 +2820,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2909,22 +2906,22 @@
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2994,22 +2991,22 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3023,10 +3020,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3035,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3047,27 +3044,27 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3076,7 +3073,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3138,22 +3135,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3223,10 +3220,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3235,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3247,15 +3244,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3264,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3276,15 +3273,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -3293,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3305,7 +3302,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3366,10 +3363,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3378,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3390,15 +3387,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3407,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3419,7 +3416,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3491,10 +3488,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3503,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3515,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3587,7 +3584,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -3601,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3681,22 +3678,22 @@
     </row>
     <row r="2" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3705,27 +3702,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3734,27 +3731,27 @@
         <v>2206</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3763,7 +3760,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3825,23 +3822,23 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>134</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3849,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3932,23 +3929,23 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>138</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3956,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4039,23 +4036,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4063,15 +4060,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>0</v>
@@ -4080,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>142</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4092,7 +4089,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4164,10 +4161,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -4176,11 +4173,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>148</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4188,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4271,22 +4268,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4295,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4378,22 +4375,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4402,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,10 +4482,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4497,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4509,15 +4506,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4526,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4538,7 +4535,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4610,23 +4607,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4634,27 +4631,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4663,7 +4660,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4735,23 +4732,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>175</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4759,27 +4756,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4788,7 +4785,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4855,7 +4852,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
@@ -4866,7 +4863,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4945,10 +4942,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -4957,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4969,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5051,10 +5048,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5063,11 +5060,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>186</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5075,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5157,10 +5154,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5169,11 +5166,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>190</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5181,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5263,10 +5260,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5275,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5287,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5370,10 +5367,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5382,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5394,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5476,10 +5473,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5488,11 +5485,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>200</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5500,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5582,10 +5579,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5594,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5606,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5688,10 +5685,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5700,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5712,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5795,10 +5792,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5807,11 +5804,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>210</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5901,22 +5898,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5925,27 +5922,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5954,7 +5951,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6016,7 +6013,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -6110,22 +6107,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6134,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6216,22 +6213,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6240,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6322,22 +6319,22 @@
     </row>
     <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6346,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6428,10 +6425,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6440,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6452,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6534,10 +6531,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6546,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6558,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6641,10 +6638,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6653,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6665,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6747,10 +6744,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6759,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6771,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6853,10 +6850,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6865,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6877,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6959,10 +6956,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6971,10 +6968,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6983,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7065,22 +7062,22 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7089,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7124,7 +7121,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7167,7 +7164,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7187,7 +7184,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7286,23 +7283,23 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>245</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -7310,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7345,7 +7342,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7384,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -7392,10 +7389,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>52</v>
+        <v>269</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7404,10 +7401,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7421,10 +7418,10 @@
     </row>
     <row r="3" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -7436,7 +7433,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7507,10 +7504,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7519,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7545,7 +7542,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7592,10 +7589,10 @@
     </row>
     <row r="2" spans="1:9" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -7604,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7677,10 +7674,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -7689,10 +7686,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -2446,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -7121,7 +7121,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7541,8 +7541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -63,7 +63,7 @@
     <sheet name="rent_home_signing" sheetId="83" r:id="rId49"/>
     <sheet name="rent_repair_lists" sheetId="84" r:id="rId50"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -867,16 +867,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636101
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rent/payment/lists</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1690,10 +1680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已存在签约记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
@@ -1725,22 +1711,6 @@
   <si>
     <t>管家-出租签约-选择租客
 -ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636562,
-"user_id":21,
-"amount":"1000",
-"sign_date":"2017-12-6",
-"keep_day":7,
-"remark":"备注"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1762,6 +1732,35 @@
 "advance_month":1,
 "payment_day":5,
 "facility":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户未通过认证不能签约</t>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636562,
+"user_id":21,
+"amount":"1000",
+"sign_date":"2018-01-22",
+"keep_day":7,
+"remark":"备注"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2447,7 +2446,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2509,7 +2508,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2538,16 +2537,16 @@
         <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2635,7 +2634,7 @@
         <v>73</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3387,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3503,7 +3502,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3598,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3693,7 +3692,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3989,7 +3988,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4051,7 +4050,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4161,22 +4160,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>145</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4268,22 +4267,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4375,22 +4374,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4482,10 +4481,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4494,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4511,10 +4510,10 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4523,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4535,7 +4534,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4607,10 +4606,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>104</v>
@@ -4619,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4636,10 +4635,10 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>104</v>
@@ -4648,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4660,7 +4659,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4732,10 +4731,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>104</v>
@@ -4744,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4761,10 +4760,10 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>104</v>
@@ -4773,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4785,7 +4784,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4863,7 +4862,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4942,22 +4941,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5048,22 +5047,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5154,22 +5153,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5260,11 +5259,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5272,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5367,11 +5366,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>193</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5379,10 +5378,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5473,22 +5472,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5579,10 +5578,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5591,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5685,10 +5684,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5697,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5792,10 +5791,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5804,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5898,22 +5897,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>209</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5927,22 +5926,22 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6107,22 +6106,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>213</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6213,22 +6212,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>218</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6319,22 +6318,22 @@
     </row>
     <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6425,22 +6424,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>223</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6531,10 +6530,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>225</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6543,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6638,10 +6637,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6650,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6744,22 +6743,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>245</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6850,10 +6849,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6862,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6956,10 +6955,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>252</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6968,10 +6967,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7062,10 +7061,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>104</v>
@@ -7074,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7121,7 +7120,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7184,7 +7183,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7283,10 +7282,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>104</v>
@@ -7295,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7342,7 +7341,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7392,7 +7391,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7401,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7421,7 +7420,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -7457,7 +7456,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7519,7 +7518,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7542,7 +7541,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7604,7 +7603,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7689,7 +7688,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1610,52 +1610,6 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"house_id":1636562
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636562,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"payment_type":2
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636562,
-"user_id":21,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-03-05",
-"payment_type":2,
-"is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
-"advance_month":1,
-"payment_day":5,
-"facility":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
 "new_house_id":1636306,
 "house_id":1636307,
 "house_status":2,
@@ -1717,6 +1671,19 @@
     <t>{
 "source": 1,
 "version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户未通过认证不能签约</t>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
 "site_id": 1,
 "timestamp":"",
 "house_id":1636562,
@@ -1741,12 +1708,10 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1635759
+"admin_id":15658,
+"house_id":1636559
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前用户未通过认证不能签约</t>
   </si>
   <si>
     <t>{
@@ -1755,12 +1720,47 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"house_id":1636562,
+"house_id":1636559,
 "user_id":21,
 "amount":"1000",
 "sign_date":"2018-01-22",
 "keep_day":7,
 "remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636559,
+"user_id":21,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636559,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"payment_type":2
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2491,7 +2491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>68</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="312.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>72</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2010</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3502,7 +3502,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>208</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>212</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>235</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -7456,7 +7456,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7518,7 +7518,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7540,8 +7540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7603,7 +7603,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7625,8 +7625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7688,7 +7688,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="45" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1645,24 +1645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"community_id":1,
-"days":7,
-"name_mobile":"13521810013",
-"page":1,
-"house_no":"102",
-"user_mobile_house_no":"13521810013",
-"community_house_no":"102",
-"user_mobile":"13521810013"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-出租签约-选择租客
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1761,6 +1743,24 @@
 "start_date":"2017-12-6",
 "end_date":"2018-12-5",
 "payment_type":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"community_id":1,
+"days":7,
+"name_mobile":"13521810013",
+"page":1,
+"house_no":"102",
+"user_mobile_house_no":"13521810013",
+"community_house_no":"102",
+"user_mobile":"13521810013"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2508,7 +2508,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2010</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4050,7 +4050,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7013,7 +7013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -7067,7 +7067,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>235</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7625,7 +7625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7688,7 +7688,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="45" activeTab="48"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -17,58 +17,61 @@
     <sheet name="rent_centralizedList" sheetId="39" r:id="rId3"/>
     <sheet name="subscribe_lists" sheetId="17" r:id="rId4"/>
     <sheet name="rent_sign_index" sheetId="40" r:id="rId5"/>
-    <sheet name="rent_userlist" sheetId="41" r:id="rId6"/>
-    <sheet name="rent_book_create" sheetId="42" r:id="rId7"/>
-    <sheet name="rent_book_docreate" sheetId="43" r:id="rId8"/>
-    <sheet name="rent_sign_bill" sheetId="45" r:id="rId9"/>
-    <sheet name="rent_sign_submit" sheetId="44" r:id="rId10"/>
-    <sheet name="rent_reside_index" sheetId="46" r:id="rId11"/>
-    <sheet name="rent_reside_checkuser" sheetId="48" r:id="rId12"/>
-    <sheet name="rent_reside_bill" sheetId="49" r:id="rId13"/>
-    <sheet name="rent_reside_submit" sheetId="50" r:id="rId14"/>
-    <sheet name="rent_change_index" sheetId="47" r:id="rId15"/>
-    <sheet name="rent_change_house" sheetId="53" r:id="rId16"/>
-    <sheet name="rent_change_bill" sheetId="52" r:id="rId17"/>
-    <sheet name="rent_change_check" sheetId="54" r:id="rId18"/>
-    <sheet name="rent_change_submit" sheetId="55" r:id="rId19"/>
-    <sheet name="rent_relet_index" sheetId="56" r:id="rId20"/>
-    <sheet name="rent_relet_bill" sheetId="58" r:id="rId21"/>
-    <sheet name="rent_relet_submit" sheetId="59" r:id="rId22"/>
-    <sheet name="rent_elemeter_currAmount" sheetId="60" r:id="rId23"/>
-    <sheet name="rent_payment_lists" sheetId="61" r:id="rId24"/>
-    <sheet name="rent_payment_meter" sheetId="62" r:id="rId25"/>
-    <sheet name="rent_order_billinfo" sheetId="63" r:id="rId26"/>
-    <sheet name="rent_order_create" sheetId="64" r:id="rId27"/>
-    <sheet name="rent_house_detail" sheetId="65" r:id="rId28"/>
-    <sheet name="rent_house_meter" sheetId="69" r:id="rId29"/>
-    <sheet name="rent_lessee_info" sheetId="70" r:id="rId30"/>
-    <sheet name="rent_lessee_facility" sheetId="66" r:id="rId31"/>
-    <sheet name="rent_lessee_orders" sheetId="67" r:id="rId32"/>
-    <sheet name="rent_lessee_residesinfo" sheetId="68" r:id="rId33"/>
-    <sheet name="rent_lessee_bill" sheetId="57" r:id="rId34"/>
-    <sheet name="rent_order_list" sheetId="51" r:id="rId35"/>
-    <sheet name="rent_order_add" sheetId="72" r:id="rId36"/>
-    <sheet name="rent_order_bill" sheetId="73" r:id="rId37"/>
-    <sheet name="rent_order_submit" sheetId="74" r:id="rId38"/>
-    <sheet name="rent_resideout_index" sheetId="76" r:id="rId39"/>
-    <sheet name="rent_resideout_damage" sheetId="77" r:id="rId40"/>
-    <sheet name="rent_resideout_bill" sheetId="78" r:id="rId41"/>
-    <sheet name="rent_resideout_submit" sheetId="79" r:id="rId42"/>
-    <sheet name="rent_checkout_index" sheetId="80" r:id="rId43"/>
-    <sheet name="rent_checkout_bill" sheetId="81" r:id="rId44"/>
-    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId45"/>
-    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId46"/>
-    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId47"/>
-    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId48"/>
-    <sheet name="rent_home_signing" sheetId="83" r:id="rId49"/>
-    <sheet name="rent_repair_lists" sheetId="84" r:id="rId50"/>
+    <sheet name="rent_sign_index_flow" sheetId="90" r:id="rId6"/>
+    <sheet name="rent_userlist" sheetId="41" r:id="rId7"/>
+    <sheet name="rent_book_create" sheetId="42" r:id="rId8"/>
+    <sheet name="rent_book_docreate" sheetId="43" r:id="rId9"/>
+    <sheet name="rent_sign_bill" sheetId="45" r:id="rId10"/>
+    <sheet name="rent_sign_submit" sheetId="44" r:id="rId11"/>
+    <sheet name="rent_sign_flow" sheetId="88" r:id="rId12"/>
+    <sheet name="rent_reside_index" sheetId="46" r:id="rId13"/>
+    <sheet name="rent_reside_checkuser" sheetId="48" r:id="rId14"/>
+    <sheet name="rent_reside_bill" sheetId="49" r:id="rId15"/>
+    <sheet name="rent_reside_submit" sheetId="50" r:id="rId16"/>
+    <sheet name="rent_change_index" sheetId="47" r:id="rId17"/>
+    <sheet name="rent_change_house" sheetId="53" r:id="rId18"/>
+    <sheet name="rent_change_bill" sheetId="52" r:id="rId19"/>
+    <sheet name="rent_change_check" sheetId="54" r:id="rId20"/>
+    <sheet name="rent_change_submit" sheetId="55" r:id="rId21"/>
+    <sheet name="rent_relet_index" sheetId="56" r:id="rId22"/>
+    <sheet name="rent_relet_bill" sheetId="58" r:id="rId23"/>
+    <sheet name="rent_relet_submit" sheetId="59" r:id="rId24"/>
+    <sheet name="rent_elemeter_currAmount" sheetId="60" r:id="rId25"/>
+    <sheet name="rent_payment_lists" sheetId="61" r:id="rId26"/>
+    <sheet name="rent_payment_meter" sheetId="62" r:id="rId27"/>
+    <sheet name="rent_order_billinfo" sheetId="63" r:id="rId28"/>
+    <sheet name="rent_order_create" sheetId="64" r:id="rId29"/>
+    <sheet name="rent_house_detail" sheetId="65" r:id="rId30"/>
+    <sheet name="rent_house_meter" sheetId="69" r:id="rId31"/>
+    <sheet name="rent_lessee_info" sheetId="70" r:id="rId32"/>
+    <sheet name="rent_lessee_info_flow" sheetId="89" r:id="rId33"/>
+    <sheet name="rent_lessee_facility" sheetId="66" r:id="rId34"/>
+    <sheet name="rent_lessee_orders" sheetId="67" r:id="rId35"/>
+    <sheet name="rent_lessee_residesinfo" sheetId="68" r:id="rId36"/>
+    <sheet name="rent_lessee_bill" sheetId="57" r:id="rId37"/>
+    <sheet name="rent_order_list" sheetId="51" r:id="rId38"/>
+    <sheet name="rent_order_add" sheetId="72" r:id="rId39"/>
+    <sheet name="rent_order_bill" sheetId="73" r:id="rId40"/>
+    <sheet name="rent_order_submit" sheetId="74" r:id="rId41"/>
+    <sheet name="rent_resideout_index" sheetId="76" r:id="rId42"/>
+    <sheet name="rent_resideout_damage" sheetId="77" r:id="rId43"/>
+    <sheet name="rent_resideout_bill" sheetId="78" r:id="rId44"/>
+    <sheet name="rent_resideout_submit" sheetId="79" r:id="rId45"/>
+    <sheet name="rent_checkout_index" sheetId="80" r:id="rId46"/>
+    <sheet name="rent_checkout_bill" sheetId="81" r:id="rId47"/>
+    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId48"/>
+    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId49"/>
+    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId50"/>
+    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId51"/>
+    <sheet name="rent_home_signing" sheetId="83" r:id="rId52"/>
+    <sheet name="rent_repair_lists" sheetId="84" r:id="rId53"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="279">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,16 +1088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-出租-租户
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1764,12 +1757,81 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>guanjia_rent
+_sign_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-签约-各种情况下的测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636828
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-租户-查看账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636828
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636828,
+"user_id":21,
+"start_date":"2018-01-30",
+"end_date":"2019-01-29",
+"first_end":"2018-02-28",
+"payment_type":1,
+"is_fixed":0,
+"advance_day":7,
+"facility":[],
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"fee_list":[{"fee_id": 10,"mode_id": 1,"amount": "500.00"}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1857,6 +1919,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1919,7 +1987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,6 +2073,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2443,10 +2535,95 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="20.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2508,7 +2685,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2537,7 +2714,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2546,7 +2723,7 @@
         <v>2010</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2567,7 +2744,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="20.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="312.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2652,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -2767,7 +3051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2853,7 +3137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2938,7 +3222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3082,7 +3366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3167,7 +3451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3303,238 +3587,6 @@
       <c r="I4" s="21" t="s">
         <v>110</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2001</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3597,7 +3649,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3626,6 +3678,238 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3769,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3876,7 +4160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3983,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4050,7 +4334,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4108,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4215,7 +4499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4322,7 +4606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4429,7 +4713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4535,256 +4819,6 @@
       </c>
       <c r="I3" s="21" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1001</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4894,7 +4928,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:XFD1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4941,22 +4975,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4969,14 +5003,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
@@ -5000,7 +5053,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:XFD1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5047,22 +5100,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5075,14 +5128,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
@@ -5102,6 +5174,324 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5153,22 +5543,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5207,12 +5597,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5259,11 +5649,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>189</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5271,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5314,12 +5704,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5366,11 +5756,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>192</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5378,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5420,12 +5810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5472,22 +5862,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5526,7 +5916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5578,10 +5968,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5590,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>165</v>
@@ -5614,344 +6004,6 @@
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2001</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
@@ -6059,7 +6111,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6068,7 +6120,7 @@
     <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
     <col min="3" max="4" width="9" style="16"/>
     <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
@@ -6104,24 +6156,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6157,10 +6209,117 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6212,22 +6371,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6240,14 +6399,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
@@ -6266,12 +6444,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6316,24 +6600,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6369,219 +6653,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6635,24 +6706,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6692,6 +6763,325 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6743,22 +7133,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>244</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6797,7 +7187,122 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="21.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6849,10 +7354,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>246</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>247</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6861,10 +7366,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6903,11 +7408,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6955,10 +7460,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6967,10 +7472,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7009,12 +7514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7061,22 +7566,22 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7088,26 +7593,27 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7115,122 +7621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="21.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2001</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7282,10 +7673,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>104</v>
@@ -7294,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7341,7 +7732,104 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="21.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7391,7 +7879,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7400,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7420,7 +7908,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -7451,7 +7939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7518,7 +8006,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7536,7 +8024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7603,92 +8091,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="20.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="35.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1592,16 +1592,6 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636562
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
 "admin_id":15658,
 "new_house_id":1636306,
 "house_id":1636307,
@@ -1777,6 +1767,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
@@ -1787,20 +1781,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管家-出租-租户-查看账单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636828
+"house_id":1636879
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1810,19 +1796,34 @@
 "version": "1.2.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636828,
+"house_id":1636879,
 "user_id":21,
-"start_date":"2018-01-30",
-"end_date":"2019-01-29",
-"first_end":"2018-02-28",
+"start_date":"2018-02-04",
+"end_date":"2018-03-03",
+"first_end":"2018-03-03",
 "payment_type":1,
 "is_fixed":0,
-"advance_day":7,
+"advance_day":1,
+"house_deposit":7000.0,
 "facility":[],
 "shop_id":4,
 "salesman_id":11960,
 "admin_id":15658,
 "fee_list":[{"fee_id": 10,"mode_id": 1,"amount": "500.00"}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-房源操作-租客信息-租户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636879
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2600,7 +2601,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2685,7 +2686,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2714,7 +2715,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2723,7 +2724,7 @@
         <v>2010</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2749,7 +2750,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2796,10 +2797,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>272</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2811,7 +2812,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3753,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3869,7 +3870,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4334,7 +4335,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5240,7 +5241,7 @@
         <v>174</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5284,7 +5285,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5334,10 +5335,10 @@
         <v>175</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -5346,7 +5347,7 @@
         <v>174</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6415,7 +6416,7 @@
         <v>207</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6511,7 +6512,7 @@
         <v>211</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7192,7 +7193,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7255,7 +7256,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7581,7 +7582,7 @@
         <v>234</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7795,7 +7796,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7879,7 +7880,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7908,7 +7909,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -8006,7 +8007,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8091,7 +8092,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1776,16 +1776,6 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636828
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
 "house_id":1636879
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1824,6 +1814,16 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":1636879
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636828
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2623,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2749,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2812,7 +2812,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3057,7 +3057,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3600,7 +3600,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4844,7 +4844,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5335,7 +5335,7 @@
         <v>175</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>273</v>
@@ -5347,7 +5347,7 @@
         <v>174</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7192,8 +7192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7256,7 +7256,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7733,7 +7733,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7796,7 +7796,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7945,7 +7945,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="49" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -7192,7 +7192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -7519,8 +7519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="49" activeTab="51"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="280">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1825,6 +1825,11 @@
 "timestamp":"",
 "house_id":1636828
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-续签-首页
+-ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3372,7 +3377,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3456,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3683,7 +3688,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3808,7 +3813,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3914,8 +3919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3965,7 +3970,7 @@
         <v>124</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>104</v>
@@ -7519,7 +7524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="44" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -495,6 +495,1299 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"user_id":21,
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-首页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"user_id":566,
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636124
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":16363070
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间信息不存在</t>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_index_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原房间存在未完成订单</t>
+  </si>
+  <si>
+    <t>/rent/change/house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_house_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-选择房间
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636307,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363070,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间状态异常</t>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_bill_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_bill_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636306,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-费用结算
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_check_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363060,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/change/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_change_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-换房-提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/relet/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-续签-首页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_relet_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636306
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/relet/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-续签-账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_relet_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"end_date":"2018-11-11",
+"first_end":"",
+"payment_type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/relet/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-续签-提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_relet_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"user_id":566,
+"end_date":"2018-11-11",
+"first_end":"2018-02-11",
+"payment_type":1,
+"is_fixed":0,
+"advance_day":7,
+"shop_id":4,
+"salesman_id":8,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/elemeter/currAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-智能电表可退金额查询
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_elemeter_curramount_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该房间不存在智能电表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/payment/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-费用催缴列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_payment_lists_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"page":1,
+"admin_id":15658,
+"page_size":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/payment/meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-周期抄表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_payment_meter_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/order/billInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单详情
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_order_billinfo_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/order/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_order_create_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单生成催缴订单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"bill_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"bill_id":23,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"bill_id":22,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单不存在或已存在订单</t>
+  </si>
+  <si>
+    <t>/rent/house/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_house_detail_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租房间详情
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":2333333
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间租约策略不存在</t>
+  </si>
+  <si>
+    <t>/rent/house/meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-抄表记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_house_meter_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23,
+"page":1,
+"page_size":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23333,
+"page":1,
+"page_size":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约信息不存在</t>
+  </si>
+  <si>
+    <t>/rent/lessee/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_info_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-租户
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-住户配套设施列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_facility_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"reside_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_orders_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-住户订单列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"signing_id":2511,
+"user_id":566
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/residesInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_residesinfo_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-住户设施账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-住户账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/order/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_order_list_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-订单列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"page":1,
+"house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/order/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-新增订单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_order_add_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/order/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_order_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-订单账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/order/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_order_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-提交订单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23,
+"meter_fee":[],
+"fee_list": [{
+     "fee_id":1,
+     "amount":40,
+      "user_id":21
+        }],
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退住-选择住户
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/resideout/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_resideout_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退住-房屋交接
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/resideout/damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_resideout_damage_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/resideout/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_resideout_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退住-费用结算单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/resideout/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退住-提交退住
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_resideout_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退房-房屋交接
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/checkout/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_checkout_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_checkout_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退房-费用结算单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/checkout/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/checkout/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_checkout_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退房-提交退房
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"reside_list":[681]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"admin_id":15658,
+"reside_list":[681],
+"reside":[{
+    "reside_id":681
+        }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"admin_id":15658,
+"house":{
+      "out_type":1,
+      "status":3,
+      "tenancy_date":1
+      },
+"reside":[{
+     "reside_id":681
+}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/home/signing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-租约到期
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_home_signing_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-维修列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/repair/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_repair_lists_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"log_type":5,
+"admin_id":15658,
+"days":7,
+"page":1,
+"user_mobile_house_no":"13521810013"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-编辑退房-房屋交接
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_echeckout_index_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/echeckout/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_echeckout_bill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-编辑退房-费用结算单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/echeckout/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":8320
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_echeckout_submit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-编辑退房-提交退房
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/echeckout/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":8320
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"orders_id":8320,
+"admin_id":15658,
+"house":{
+      "out_type":1,
+      "status":3,
+      "tenancy_date":1
+      },
+"reside":[{
+     "reside_id":681
+}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"keyword":"",
+"offset":"",
+"limit":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/common/userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"new_house_id":1636306,
+"house_id":1636307,
+"house_status":2,
+"reside_list":[],
+"new_facility":[],
+"waiting_days":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":888
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"reside_list": [681]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租签约-选择租客
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户未通过认证不能签约</t>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636562,
+"user_id":15658,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-1-5",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636559
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636559,
+"user_id":21,
+"amount":"1000",
+"sign_date":"2018-01-22",
+"keep_day":7,
+"remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636559,
+"user_id":21,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636559,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"payment_type":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"community_id":1,
+"days":7,
+"name_mobile":"13521810013",
+"page":1,
+"house_no":"102",
+"user_mobile_house_no":"13521810013",
+"community_house_no":"102",
+"user_mobile":"13521810013"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_sign_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-签约-各种情况下的测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636879
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636879,
+"user_id":21,
+"start_date":"2018-02-04",
+"end_date":"2018-03-03",
+"first_end":"2018-03-03",
+"payment_type":1,
+"is_fixed":0,
+"advance_day":1,
+"house_deposit":7000.0,
+"facility":[],
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"fee_list":[{"fee_id": 10,"mode_id": 1,"amount": "500.00"}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-房源操作-租客信息-租户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636879
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636828
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-续签-首页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
@@ -537,1299 +1830,6 @@
 "admin_id":15658,
 "house_id":101
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"user_id":21,
-"house_id":101
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/change/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-换房-首页
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_index_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"user_id":566,
-"house_id":101
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636124
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":16363070
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间信息不存在</t>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_index_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原房间存在未完成订单</t>
-  </si>
-  <si>
-    <t>/rent/change/house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_house_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-换房-选择房间
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/change/bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-换房-账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636307,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363070,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间状态异常</t>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_bill_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_bill_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636306,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/change/check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-换房-费用结算
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_check_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363060,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/change/submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_change_submit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-换房-提交
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/relet/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-续签-首页
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_relet_index_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636306
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/relet/bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-续签-账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_relet_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"end_date":"2018-11-11",
-"first_end":"",
-"payment_type":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/relet/submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-续签-提交
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_relet_submit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"user_id":566,
-"end_date":"2018-11-11",
-"first_end":"2018-02-11",
-"payment_type":1,
-"is_fixed":0,
-"advance_day":7,
-"shop_id":4,
-"salesman_id":8,
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/elemeter/currAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-智能电表可退金额查询
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_elemeter_curramount_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该房间不存在智能电表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/payment/lists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-费用催缴列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_payment_lists_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"page":1,
-"admin_id":15658,
-"page_size":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/payment/meter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-周期抄表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_payment_meter_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/order/billInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单详情
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_order_billinfo_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/order/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_order_create_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单生成催缴订单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":101
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"bill_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"bill_id":23,
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"bill_id":22,
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单不存在或已存在订单</t>
-  </si>
-  <si>
-    <t>/rent/house/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_house_detail_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租房间详情
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":2333333
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间租约策略不存在</t>
-  </si>
-  <si>
-    <t>/rent/house/meter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-抄表记录
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_house_meter_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":23,
-"page":1,
-"page_size":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":23333,
-"page":1,
-"page_size":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约信息不存在</t>
-  </si>
-  <si>
-    <t>/rent/lessee/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_info_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-租户
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/lessee/facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-住户配套设施列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_facility_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"reside_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/lessee/orders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_orders_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-住户订单列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"signing_id":2511,
-"user_id":566
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/lessee/residesInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_residesinfo_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-住户设施账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/lessee/bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-住户账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/order/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_order_list_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-订单列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"page":1,
-"house_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/order/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-新增订单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_order_add_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/order/bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_order_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-订单账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/order/submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_order_submit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-提交订单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":23,
-"meter_fee":[],
-"fee_list": [{
-     "fee_id":1,
-     "amount":40,
-      "user_id":21
-        }],
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-退住-选择住户
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/resideout/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_resideout_index_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-退住-房屋交接
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/resideout/damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_resideout_damage_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/resideout/bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_resideout_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-退住-费用结算单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/resideout/submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-退住-提交退住
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_resideout_submit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-退房-房屋交接
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/checkout/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_checkout_index_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_checkout_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-退房-费用结算单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/checkout/bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/checkout/submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_checkout_submit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-退房-提交退房
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"reside_list":[681]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"admin_id":15658,
-"reside_list":[681],
-"reside":[{
-    "reside_id":681
-        }]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"admin_id":15658,
-"house":{
-      "out_type":1,
-      "status":3,
-      "tenancy_date":1
-      },
-"reside":[{
-     "reside_id":681
-}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/home/signing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-租约到期
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_home_signing_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-维修列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/repair/lists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_repair_lists_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"log_type":5,
-"admin_id":15658,
-"days":7,
-"page":1,
-"user_mobile_house_no":"13521810013"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-编辑退房-房屋交接
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_echeckout_index_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/echeckout/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_echeckout_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-编辑退房-费用结算单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/echeckout/bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":8320
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_echeckout_submit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-编辑退房-提交退房
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/echeckout/submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":8320
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":8320,
-"admin_id":15658,
-"house":{
-      "out_type":1,
-      "status":3,
-      "tenancy_date":1
-      },
-"reside":[{
-     "reside_id":681
-}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"keyword":"",
-"offset":"",
-"limit":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/common/userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"new_house_id":1636306,
-"house_id":1636307,
-"house_status":2,
-"reside_list":[],
-"new_facility":[],
-"waiting_days":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":888
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"reside_list": [681]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租签约-选择租客
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1635759
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前用户未通过认证不能签约</t>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636562,
-"user_id":15658,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-1-5",
-"payment_type":2,
-"is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
-"advance_month":1,
-"payment_day":5,
-"facility":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636559
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636559,
-"user_id":21,
-"amount":"1000",
-"sign_date":"2018-01-22",
-"keep_day":7,
-"remark":"备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636559,
-"user_id":21,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-03-05",
-"payment_type":2,
-"is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
-"advance_month":1,
-"payment_day":5,
-"facility":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636559,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"payment_type":2
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"community_id":1,
-"days":7,
-"name_mobile":"13521810013",
-"page":1,
-"house_no":"102",
-"user_mobile_house_no":"13521810013",
-"community_house_no":"102",
-"user_mobile":"13521810013"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_sign_flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-签约-各种情况下的测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636879
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636879,
-"user_id":21,
-"start_date":"2018-02-04",
-"end_date":"2018-03-03",
-"first_end":"2018-03-03",
-"payment_type":1,
-"is_fixed":0,
-"advance_day":1,
-"house_deposit":7000.0,
-"facility":[],
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
-"fee_list":[{"fee_id": 10,"mode_id": 1,"amount": "500.00"}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-房源操作-租客信息-租户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636879
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636828
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-续签-首页
--ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2606,7 +2606,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>2010</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>271</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2817,11 +2817,9 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G2" s="20"/>
       <c r="H2" s="18">
         <v>0</v>
       </c>
@@ -2862,7 +2860,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2924,7 +2922,7 @@
         <v>73</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3009,7 +3007,7 @@
         <v>77</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3018,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -3038,7 +3036,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3062,7 +3060,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3148,7 +3146,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3210,7 +3208,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3280,10 +3278,10 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3292,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3309,10 +3307,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3321,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3333,15 +3331,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -3350,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3362,7 +3360,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3424,22 +3422,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3509,10 +3507,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>107</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3521,27 +3519,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3550,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3562,15 +3560,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -3579,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3591,7 +3589,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3655,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3735,10 +3733,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3747,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3759,15 +3757,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3776,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3788,7 +3786,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3860,10 +3858,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3872,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3884,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3919,7 +3917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3967,22 +3965,22 @@
     </row>
     <row r="2" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3991,27 +3989,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4020,27 +4018,27 @@
         <v>2206</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4049,7 +4047,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4111,23 +4109,23 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4135,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4218,23 +4216,23 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4325,22 +4323,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4349,27 +4347,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4378,7 +4376,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4450,23 +4448,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4474,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4557,22 +4555,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4581,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4664,22 +4662,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4688,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4771,10 +4769,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>154</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4783,10 +4781,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4795,15 +4793,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>153</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>154</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4812,10 +4810,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4824,7 +4822,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4902,7 +4900,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4981,23 +4979,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5005,27 +5003,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5034,7 +5032,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5106,23 +5104,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>171</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5130,27 +5128,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5159,7 +5157,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5231,11 +5229,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>176</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5243,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5255,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5337,23 +5335,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>277</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5361,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5443,23 +5441,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>181</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5467,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5549,23 +5547,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>185</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5573,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5655,11 +5653,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>188</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5667,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5679,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5762,11 +5760,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>191</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5774,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5786,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5868,23 +5866,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>195</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5892,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5974,10 +5972,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5986,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5998,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6164,10 +6162,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>201</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6176,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6188,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6271,10 +6269,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6283,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6295,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6330,7 +6328,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6377,22 +6375,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>207</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6401,27 +6399,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>207</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6430,7 +6428,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6502,22 +6500,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>211</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6526,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6561,7 +6559,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6608,22 +6606,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6632,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6663,6 +6661,112 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6712,24 +6816,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>218</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6738,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6768,12 +6872,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6823,19 +6927,19 @@
         <v>222</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6844,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6871,15 +6975,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6924,12 +7029,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6941,7 +7046,7 @@
         <v>225</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6950,117 +7055,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="D3" s="23"/>
@@ -7139,22 +7137,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>243</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7163,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7261,7 +7259,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7360,10 +7358,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>246</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7372,10 +7370,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7384,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7466,10 +7464,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7478,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7490,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7572,10 +7570,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -7584,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7596,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7679,23 +7677,23 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>240</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -7703,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7801,7 +7799,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7885,7 +7883,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7894,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7914,7 +7912,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -8012,7 +8010,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8035,7 +8033,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8097,7 +8095,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="44" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1602,28 +1602,6 @@
   </si>
   <si>
     <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636562,
-"user_id":15658,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-1-5",
-"payment_type":2,
-"is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
-"advance_month":1,
-"payment_day":5,
-"facility":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
@@ -1829,6 +1807,28 @@
         }],
 "admin_id":15658,
 "house_id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636562,
+"user_id":15658,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-1-5",
+"payment_type":2,
+"is_fixed":1,
+"shop_id":4,
+"salesman_id":11960,
+"admin_id":15658,
+"advance_month":1,
+"payment_day":5,
+"facility":[]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2606,7 +2606,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2628,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2691,7 +2691,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>270</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2817,7 +2817,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -3208,7 +3208,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>103</v>
@@ -5244,7 +5244,7 @@
         <v>173</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>174</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>173</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6983,8 +6983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7259,7 +7259,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>233</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8010,7 +8010,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -2628,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4615,7 +4615,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4721,8 +4721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="39" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="283">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,16 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":"16350640"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_rent
 _userlist_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,17 +457,6 @@
   <si>
     <t>guanjia_rent
 _reside_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"start_date":"2017-09-13",
-"house_id":101
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -714,26 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636306
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rent/relet/bill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -751,19 +710,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"end_date":"2018-11-11",
-"first_end":"",
-"payment_type":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/rent/relet/submit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,25 +721,6 @@
   <si>
     <t>guanjia_rent
 _relet_submit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"user_id":566,
-"end_date":"2018-11-11",
-"first_end":"2018-02-11",
-"payment_type":1,
-"is_fixed":0,
-"advance_day":7,
-"shop_id":4,
-"salesman_id":8,
-"admin_id":15658
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -907,16 +834,6 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":101
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1341,17 +1258,6 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":1636343
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"reside_list":[681]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1613,44 +1519,6 @@
   </si>
   <si>
     <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636559,
-"user_id":21,
-"amount":"1000",
-"sign_date":"2018-01-22",
-"keep_day":7,
-"remark":"备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636559,
-"user_id":21,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-03-05",
-"payment_type":2,
-"is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
-"advance_month":1,
-"payment_day":5,
-"facility":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
@@ -1701,16 +1569,6 @@
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636879
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1771,13 +1629,157 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
+"house_id":1636879,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":"16350640",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636559,
+"user_id":21,
+"amount":"1000",
+"sign_date":"2018-01-22",
+"receipt_time":"2018-01-22",
+"keep_day":7,
+"amount_list":{"id":1, "amount":1000.0},
+"remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"user_id":21,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"house_deposit":800.0,
+"facility":[],
+"salesman_id":11960,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"user_id":15658,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"house_deposit":800.0,
+"facility":[],
+"salesman_id":11960,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-签约-提交（纸质合同）
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-签约-提交(电子合同)（固定付款日）
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"user_id":21,
+"start_date":"2017-12-6",
+"end_date":"2019-12-5",
+"first_end":"2018-03-05",
+"payment_type":3,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"invoice_rate":3.0,
+"house_deposit":"800",
+"facility":[],
+"fee_list":[],
+"salesman_id":11960,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":"8000"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"start_date":"2017-09-13",
+"house_id":101,
+"end_date":"2019-09-13",
+"payment_type":3
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
 "user_list":[
          {
             "user_id":566,
             "start_date":"2017-07-11",
-            "end_date":"2017-11-30",
+            "end_date":"2019-11-30",
             "first_end":"2017-07-20",
             "is_fixed":1,
+            "payment_type":3,
             "is_deposit":0,
             "payment_day":"10",
             "fee_list": [
@@ -1812,23 +1814,101 @@
   </si>
   <si>
     <t>{
-"source": 4,
-"version": "1.2.0",
+"source": 1,
+"version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636562,
-"user_id":15658,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-1-5",
-"payment_type":2,
+"house_id":1636308,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636307,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636306,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"end_date":"2019-11-11",
+"first_end":"",
+"payment_type":1,
+"reside_list":[{
+"reside_id":1,
+"start_date":"2018-04-24",
+"end_date":"2019-11-11",
+"first_end":"2018-04-24",
+"payment_type":3,
 "is_fixed":1,
-"shop_id":4,
-"salesman_id":11960,
-"admin_id":15658,
 "advance_month":1,
 "payment_day":5,
-"facility":[]
+"personal_deposit":800.0
+}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"user_id":566,
+"end_date":"2018-11-11",
+"first_end":"2018-02-11",
+"payment_type":1,
+"is_fixed":0,
+"advance_day":7,
+"reside_list":[],
+"salesman_id":8,
+"sign_admin":1,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"reside_list":[681],
+"damage":{
+"facility":{
+"user_type_id":1,
+"facility_id":1,
+"damage_num":0,
+"damage_amount":"800",
+"lose_num":0 },
+"repair":{
+"user_type_id":1,
+"repair_id":1,
+"amount":"1000" }
+}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2591,10 +2671,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2603,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2626,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2674,12 +2754,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="361.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2688,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2703,12 +2783,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="312.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="375" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -2717,31 +2797,60 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
         <v>2010</v>
       </c>
-      <c r="I3" s="28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2802,10 +2911,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2814,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -2907,10 +3016,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -2919,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2992,22 +3101,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3016,27 +3125,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3045,7 +3154,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3058,177 +3167,6 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="49.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -3276,12 +3214,183 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="49.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3290,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3307,10 +3416,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3319,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3331,15 +3440,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -3348,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3360,7 +3469,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3422,22 +3531,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3507,10 +3616,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3519,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3531,15 +3640,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3548,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3560,15 +3669,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -3577,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3589,7 +3698,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3639,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -3653,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3733,10 +3842,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3745,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3757,15 +3866,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3774,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3786,7 +3895,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3858,10 +3967,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3870,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3882,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3918,7 +4027,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3965,23 +4074,23 @@
     </row>
     <row r="2" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -3989,27 +4098,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4018,27 +4127,27 @@
         <v>2206</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4047,7 +4156,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +4171,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4107,24 +4216,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="313.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4133,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4216,22 +4325,22 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4240,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4323,22 +4432,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4347,15 +4456,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>0</v>
@@ -4364,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4376,7 +4485,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4448,10 +4557,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -4460,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4472,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4555,22 +4664,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4579,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4662,23 +4771,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>157</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4686,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4721,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4769,10 +4878,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -4781,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4793,15 +4902,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -4810,10 +4919,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4822,7 +4931,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4889,7 +4998,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
@@ -4900,7 +5009,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -4979,22 +5088,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5003,27 +5112,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5032,7 +5141,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5104,22 +5213,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5128,27 +5237,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5157,7 +5266,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5229,10 +5338,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5241,10 +5350,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5253,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5335,22 +5444,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5359,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5441,10 +5550,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5453,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5465,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5547,10 +5656,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5559,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5571,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5653,10 +5762,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5665,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5677,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5760,10 +5869,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5772,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5784,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5866,10 +5975,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5878,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5890,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5972,10 +6081,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5984,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5996,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6068,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -6162,10 +6271,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6174,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6186,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6269,10 +6378,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6281,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6293,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6375,22 +6484,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6399,27 +6508,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6428,7 +6537,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6500,22 +6609,22 @@
     </row>
     <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6524,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6558,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6568,7 +6677,7 @@
     <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
     <col min="3" max="4" width="9" style="16"/>
     <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29.875" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
@@ -6604,24 +6713,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="315" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6630,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6712,22 +6821,22 @@
     </row>
     <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6736,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6818,10 +6927,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6830,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6842,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6924,10 +7033,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6936,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6948,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7031,10 +7140,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7043,10 +7152,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7055,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -7137,10 +7246,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -7149,10 +7258,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7161,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7239,7 +7348,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7259,7 +7368,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7271,7 +7380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
@@ -7288,7 +7397,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7358,10 +7467,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7370,10 +7479,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7382,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7464,10 +7573,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7476,10 +7585,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7488,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7570,10 +7679,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -7582,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7594,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7677,22 +7786,22 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7701,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7799,7 +7908,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7872,7 +7981,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -7880,10 +7989,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -7892,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7909,10 +8018,10 @@
     </row>
     <row r="3" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -7924,7 +8033,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7995,10 +8104,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -8007,10 +8116,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8033,7 +8142,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8042,7 +8151,7 @@
     <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
     <col min="3" max="4" width="9" style="16"/>
     <col min="5" max="5" width="24.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="16" customWidth="1"/>
@@ -8078,12 +8187,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="200.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="231.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -8092,10 +8201,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="39" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="48" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="284">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1505,30 +1505,6 @@
   </si>
   <si>
     <t>当前用户未通过认证不能签约</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636559
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636559,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"payment_type":2
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1642,24 +1618,6 @@
 "timestamp":"",
 "house_id":"16350640",
 "admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636559,
-"user_id":21,
-"amount":"1000",
-"sign_date":"2018-01-22",
-"receipt_time":"2018-01-22",
-"keep_day":7,
-"amount_list":{"id":1, "amount":1000.0},
-"remark":"备注"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1690,32 +1648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"contract_type":1,
-"house_id":1636559,
-"user_id":15658,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-03-05",
-"payment_type":2,
-"is_fixed":1,
-"advance_month":1,
-"payment_day":5,
-"house_deposit":800.0,
-"facility":[],
-"salesman_id":11960,
-"sign_admin":1,
-"admin_id":15658,
-"create_remark":"备注",
-"custom_rent":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管家-出租-签约-提交（纸质合同）
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1723,34 +1655,6 @@
   <si>
     <t>管家-出租-签约-提交(电子合同)（固定付款日）
 -ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"contract_type":1,
-"house_id":1636559,
-"user_id":21,
-"start_date":"2017-12-6",
-"end_date":"2019-12-5",
-"first_end":"2018-03-05",
-"payment_type":3,
-"is_fixed":1,
-"advance_month":1,
-"payment_day":5,
-"invoice_rate":3.0,
-"house_deposit":"800",
-"facility":[],
-"fee_list":[],
-"salesman_id":11960,
-"sign_admin":1,
-"admin_id":15658,
-"create_remark":"备注",
-"custom_rent":"8000"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1818,17 +1722,6 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636308,
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
 "house_id":1636307,
 "admin_id":15658
 }</t>
@@ -1885,6 +1778,128 @@
 "reside_list":[],
 "salesman_id":8,
 "sign_admin":1,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636559
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636559,
+"user_id":21,
+"amount":"1000.0",
+"sign_date":"2018-01-22",
+"receipt_time":"2018-01-22",
+"keep_day":7,
+"amount_list":{"id":1, "amount":1000.0},
+"remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"payment_type":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"user_id":15658,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"invoice_rate":3.0,
+"house_deposit":800.0,
+"facility":[],
+"fee_list":[],
+"salesman_id":1,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":"5000",
+"supplement":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"user_id":21,
+"start_date":"2017-12-6",
+"end_date":"2019-12-5",
+"first_end":"2018-03-05",
+"payment_type":3,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"invoice_rate":3.0,
+"house_deposit":"800",
+"facility":[],
+"fee_list":[],
+"salesman_id":1,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":"8000",
+"supplement":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
 "admin_id":15658
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2624,7 +2639,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2686,7 +2701,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2708,8 +2723,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="20.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="361.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="375" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2010</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2754,12 +2924,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="361.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2771,162 +2941,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="375" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="20.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="35.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="27.125" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -2969,7 +2984,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3231,7 +3246,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3317,7 +3332,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3340,7 +3355,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3402,7 +3417,7 @@
         <v>88</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3569,7 +3584,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3795,7 +3810,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4027,7 +4042,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4077,7 +4092,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>101</v>
@@ -4089,7 +4104,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4118,7 +4133,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4147,7 +4162,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4233,7 +4248,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4340,7 +4355,7 @@
         <v>126</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5353,7 +5368,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5447,10 +5462,10 @@
         <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -5459,7 +5474,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6667,7 +6682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6730,7 +6745,7 @@
         <v>206</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6985,7 +7000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -7305,7 +7320,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7368,7 +7383,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7397,7 +7412,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7525,8 +7540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7694,7 +7709,7 @@
         <v>225</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7908,7 +7923,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7942,7 +7957,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8057,7 +8072,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8119,7 +8134,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8204,7 +8219,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="48" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="42" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="285">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,21 +1258,6 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":1636343
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"admin_id":15658,
-"reside_list":[681],
-"reside":[{
-    "reside_id":681
-        }]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1794,24 +1779,6 @@
   </si>
   <si>
     <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636559,
-"user_id":21,
-"amount":"1000.0",
-"sign_date":"2018-01-22",
-"receipt_time":"2018-01-22",
-"keep_day":7,
-"amount_list":{"id":1, "amount":1000.0},
-"remark":"备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
@@ -1855,6 +1822,28 @@
   </si>
   <si>
     <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636307
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
 "source": 4,
 "version": "1.2.0",
 "site_id": 1,
@@ -1870,10 +1859,10 @@
 "advance_month":1,
 "payment_day":5,
 "invoice_rate":3.0,
-"house_deposit":"800",
+"house_deposit":800.0,
 "facility":[],
 "fee_list":[],
-"salesman_id":1,
+"salesman_id":11,
 "sign_admin":1,
 "admin_id":15658,
 "create_remark":"备注",
@@ -1883,24 +1872,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>原合同整房账单未结清不可续租</t>
+  </si>
+  <si>
     <t>{
-"source": 1,
-"version": "1.1.0",
+"source": 4,
+"version": "1.2.0",
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"admin_id":15658
+"house_id":1636559,
+"user_id":21,
+"amount":"1000.0",
+"sign_date":"2018-01-22",
+"receipt_time":"2018-01-22",
+"keep_day":7,
+"amount_list":{"id":1, "amount":1000.0},
+"remark":"备注"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1913,17 +1901,51 @@
 "house_id":1636343,
 "reside_list":[681],
 "damage":{
-"facility":{
-"user_type_id":1,
-"facility_id":1,
-"damage_num":0,
-"damage_amount":"800",
-"lose_num":0 },
-"repair":{
-"user_type_id":1,
-"repair_id":1,
-"amount":"1000" }
-}
+"facility":[],
+"repair":[]
+},
+"checkout_date":"2018-04-26"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"admin_id":15658,
+"reside_list": {
+        "681": {
+            "reside_id":"681",
+            "meter_list": [
+                 {
+          "unique_id":3482,
+                    "new_meter":5,
+                    "orders_remark":"",
+                    "amount":0
+                },
+                 {
+                    "unique_id":3483,
+                    "new_meter":5,
+                    "orders_remark":"",
+                    "amount":0
+                }
+            ],
+            "fee_list": [
+            ],
+            "total_amount":0,
+            "receipt_remark":"test",
+            "pay_log": [
+                 {
+                    "account_id":1,
+                    "account_amount":0
+                }
+            ]
+        }
+    },
+"checkout_date":"2018-04-26"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2639,7 +2661,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2701,7 +2723,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2774,7 +2796,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2803,7 +2825,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -2815,7 +2837,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2844,7 +2866,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -2853,7 +2875,7 @@
         <v>2010</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -2926,10 +2948,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>256</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>257</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2941,7 +2963,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -3246,7 +3268,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3332,7 +3354,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3417,7 +3439,7 @@
         <v>88</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3777,7 +3799,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3881,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3997,7 +4019,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4042,7 +4064,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4092,7 +4114,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>101</v>
@@ -4104,7 +4126,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4133,16 +4155,16 @@
         <v>119</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -4162,7 +4184,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4248,7 +4270,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4355,7 +4377,7 @@
         <v>126</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4462,7 +4484,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5368,7 +5390,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5462,10 +5484,10 @@
         <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -5474,7 +5496,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6452,7 +6474,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6543,7 +6565,7 @@
         <v>199</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6577,7 +6599,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6622,7 +6644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>205</v>
       </c>
@@ -6639,7 +6661,7 @@
         <v>203</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6680,7 +6702,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -6757,26 +6779,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6786,10 +6798,106 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="381" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6834,24 +6942,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6863,132 +6971,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7170,7 +7162,7 @@
         <v>218</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7261,22 +7253,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>234</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7383,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7412,7 +7404,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7482,10 +7474,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7494,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7540,7 +7532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -7588,10 +7580,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7600,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7694,10 +7686,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -7706,10 +7698,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7801,10 +7793,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>101</v>
@@ -7813,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7923,7 +7915,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8007,7 +7999,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -8016,10 +8008,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8036,7 +8028,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -8072,7 +8064,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8134,7 +8126,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8157,7 +8149,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8219,7 +8211,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="42" activeTab="45"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="45" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -59,19 +59,20 @@
     <sheet name="rent_resideout_submit" sheetId="79" r:id="rId45"/>
     <sheet name="rent_checkout_index" sheetId="80" r:id="rId46"/>
     <sheet name="rent_checkout_bill" sheetId="81" r:id="rId47"/>
-    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId48"/>
-    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId49"/>
-    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId50"/>
-    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId51"/>
-    <sheet name="rent_home_signing" sheetId="83" r:id="rId52"/>
-    <sheet name="rent_repair_lists" sheetId="84" r:id="rId53"/>
+    <sheet name="rent_checkout_receipt" sheetId="91" r:id="rId48"/>
+    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId49"/>
+    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId50"/>
+    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId51"/>
+    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId52"/>
+    <sheet name="rent_home_signing" sheetId="83" r:id="rId53"/>
+    <sheet name="rent_repair_lists" sheetId="84" r:id="rId54"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="286">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1248,35 +1249,6 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":1636343
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"admin_id":15658,
-"house":{
-      "out_type":1,
-      "status":3,
-      "tenancy_date":1
-      },
-"reside":[{
-     "reside_id":681
-}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,9 +1459,6 @@
 "house_id":1635759
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前用户未通过认证不能签约</t>
   </si>
   <si>
     <t>{
@@ -1604,37 +1573,6 @@
 "house_id":"16350640",
 "admin_id":15658
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"contract_type":1,
-"house_id":1636559,
-"user_id":21,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-03-05",
-"payment_type":2,
-"is_fixed":1,
-"advance_month":1,
-"payment_day":5,
-"house_deposit":800.0,
-"facility":[],
-"salesman_id":11960,
-"sign_admin":1,
-"admin_id":15658,
-"create_remark":"备注",
-"custom_rent":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-签约-提交（纸质合同）
--ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1843,54 +1781,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"contract_type":1,
-"house_id":1636559,
-"user_id":21,
-"start_date":"2017-12-6",
-"end_date":"2019-12-5",
-"first_end":"2018-03-05",
-"payment_type":3,
-"is_fixed":1,
-"advance_month":1,
-"payment_day":5,
-"invoice_rate":3.0,
-"house_deposit":800.0,
-"facility":[],
-"fee_list":[],
-"salesman_id":11,
-"sign_admin":1,
-"admin_id":15658,
-"create_remark":"备注",
-"custom_rent":"8000",
-"supplement":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原合同整房账单未结清不可续租</t>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":1636559,
-"user_id":21,
-"amount":"1000.0",
-"sign_date":"2018-01-22",
-"receipt_time":"2018-01-22",
-"keep_day":7,
-"amount_list":{"id":1, "amount":1000.0},
-"remark":"备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1946,6 +1837,117 @@
         }
     },
 "checkout_date":"2018-04-26"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":1636559,
+"user_id":21,
+"amount":"1000.0",
+"sign_date":"2018-01-22",
+"receipt_time":"2018-01-22",
+"keep_day":7,
+"amount_list":[{
+"id":1,
+"amount":1000.0
+}],
+"remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"user_id":21,
+"start_date":"2017-12-6",
+"end_date":"2019-12-5",
+"first_end":"2018-03-05",
+"payment_type":3,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"invoice_rate":3.0,
+"house_deposit":800.0,
+"facility":[],
+"fee_list":[],
+"salesman_id":11,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":"8000",
+"supplement":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_checkout_receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/checkout/receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"total_amount":1000.0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退房-提交收款
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"out_date":"2018-04-27",
+"damage":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"admin_id":15658,
+"out_date":"2018-04-27",
+"out_type":"1",
+"house_status":"3",
+"tenancy_date":"1",
+"total_amount":"88888",
+"meter_list":[],
+"fee_list":[{
+}],
+"pay_log":[{
+"id":1,
+"amount":88888
+}],
+"receipt_remark":"备注"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2661,7 +2663,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2723,7 +2725,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2743,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2796,7 +2798,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2808,7 +2810,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2820,12 +2822,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="375" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -2837,57 +2839,28 @@
         <v>66</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="21"/>
+        <v>2002</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2948,10 +2921,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2963,7 +2936,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -3268,7 +3241,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3354,7 +3327,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3439,7 +3412,7 @@
         <v>88</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3799,7 +3772,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3903,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4019,7 +3992,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4114,7 +4087,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>101</v>
@@ -4126,7 +4099,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4155,7 +4128,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4164,7 +4137,7 @@
         <v>2202</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -4184,7 +4157,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4270,7 +4243,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4377,7 +4350,7 @@
         <v>126</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4484,7 +4457,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5390,7 +5363,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5484,10 +5457,10 @@
         <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -5496,7 +5469,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6565,7 +6538,7 @@
         <v>199</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6661,7 +6634,7 @@
         <v>203</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6767,7 +6740,7 @@
         <v>206</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6863,7 +6836,7 @@
         <v>209</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6896,8 +6869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6959,7 +6932,7 @@
         <v>213</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6990,10 +6963,107 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7040,22 +7110,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7067,9 +7137,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
@@ -7077,30 +7148,18 @@
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7109,7 +7168,7 @@
     <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
     <col min="3" max="4" width="9" style="16"/>
     <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
@@ -7145,7 +7204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="396" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>219</v>
       </c>
@@ -7162,7 +7221,7 @@
         <v>218</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7174,132 +7233,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7375,7 +7318,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7404,7 +7347,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7474,22 +7417,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>242</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7529,6 +7472,112 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7580,10 +7629,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7592,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7634,7 +7683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7686,10 +7735,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -7698,10 +7747,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7741,7 +7790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7793,10 +7842,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>101</v>
@@ -7805,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7915,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7999,7 +8048,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -8008,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8028,7 +8077,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -8064,7 +8113,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8126,7 +8175,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8149,7 +8198,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8194,7 +8243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="231.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="262.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>64</v>
       </c>
@@ -8211,7 +8260,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="45" activeTab="48"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="36" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -44,35 +44,41 @@
     <sheet name="rent_house_detail" sheetId="65" r:id="rId30"/>
     <sheet name="rent_house_meter" sheetId="69" r:id="rId31"/>
     <sheet name="rent_lessee_info" sheetId="70" r:id="rId32"/>
-    <sheet name="rent_lessee_info_flow" sheetId="89" r:id="rId33"/>
-    <sheet name="rent_lessee_facility" sheetId="66" r:id="rId34"/>
-    <sheet name="rent_lessee_orders" sheetId="67" r:id="rId35"/>
-    <sheet name="rent_lessee_residesinfo" sheetId="68" r:id="rId36"/>
-    <sheet name="rent_lessee_bill" sheetId="57" r:id="rId37"/>
-    <sheet name="rent_order_list" sheetId="51" r:id="rId38"/>
-    <sheet name="rent_order_add" sheetId="72" r:id="rId39"/>
-    <sheet name="rent_order_bill" sheetId="73" r:id="rId40"/>
-    <sheet name="rent_order_submit" sheetId="74" r:id="rId41"/>
-    <sheet name="rent_resideout_index" sheetId="76" r:id="rId42"/>
-    <sheet name="rent_resideout_damage" sheetId="77" r:id="rId43"/>
-    <sheet name="rent_resideout_bill" sheetId="78" r:id="rId44"/>
-    <sheet name="rent_resideout_submit" sheetId="79" r:id="rId45"/>
-    <sheet name="rent_checkout_index" sheetId="80" r:id="rId46"/>
-    <sheet name="rent_checkout_bill" sheetId="81" r:id="rId47"/>
-    <sheet name="rent_checkout_receipt" sheetId="91" r:id="rId48"/>
-    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId49"/>
-    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId50"/>
-    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId51"/>
-    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId52"/>
-    <sheet name="rent_home_signing" sheetId="83" r:id="rId53"/>
-    <sheet name="rent_repair_lists" sheetId="84" r:id="rId54"/>
+    <sheet name="rent_lessee_newinfo" sheetId="92" r:id="rId33"/>
+    <sheet name="rent_lessee_info_flow" sheetId="89" r:id="rId34"/>
+    <sheet name="rent_lessee_facility" sheetId="66" r:id="rId35"/>
+    <sheet name="rent_lessee_orders" sheetId="67" r:id="rId36"/>
+    <sheet name="rent_lessee_residesinfo" sheetId="68" r:id="rId37"/>
+    <sheet name="rent_lessee_bill" sheetId="57" r:id="rId38"/>
+    <sheet name="rent_lessee_addbill" sheetId="96" r:id="rId39"/>
+    <sheet name="rent_lessee_billsubmit" sheetId="97" r:id="rId40"/>
+    <sheet name="rent_bill_detail" sheetId="93" r:id="rId41"/>
+    <sheet name="rent_bill_upremark" sheetId="94" r:id="rId42"/>
+    <sheet name="Sheet4" sheetId="95" r:id="rId43"/>
+    <sheet name="rent_order_list" sheetId="51" r:id="rId44"/>
+    <sheet name="rent_order_add" sheetId="72" r:id="rId45"/>
+    <sheet name="rent_order_bill" sheetId="73" r:id="rId46"/>
+    <sheet name="rent_order_submit" sheetId="74" r:id="rId47"/>
+    <sheet name="rent_resideout_index" sheetId="76" r:id="rId48"/>
+    <sheet name="rent_resideout_damage" sheetId="77" r:id="rId49"/>
+    <sheet name="rent_resideout_bill" sheetId="78" r:id="rId50"/>
+    <sheet name="rent_resideout_submit" sheetId="79" r:id="rId51"/>
+    <sheet name="rent_checkout_index" sheetId="80" r:id="rId52"/>
+    <sheet name="rent_checkout_bill" sheetId="81" r:id="rId53"/>
+    <sheet name="rent_checkout_receipt" sheetId="91" r:id="rId54"/>
+    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId55"/>
+    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId56"/>
+    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId57"/>
+    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId58"/>
+    <sheet name="rent_home_signing" sheetId="83" r:id="rId59"/>
+    <sheet name="rent_repair_lists" sheetId="84" r:id="rId60"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="309">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,11 +1051,6 @@
   <si>
     <t>guanjia_rent
 _lessee_bill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-住户账单
--ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1363,25 +1364,6 @@
 "site_id": 1,
 "timestamp":"",
 "orders_id":8320
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"orders_id":8320,
-"admin_id":15658,
-"house":{
-      "out_type":1,
-      "status":3,
-      "tenancy_date":1
-      },
-"reside":[{
-     "reside_id":681
-}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1934,21 +1916,179 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":1636343,
+"orders_id":8320,
+"admin_id":15658,
+"house":[{
+      "out_type":1,
+      "status":3,
+      "tenancy_date":1
+      }],
+"reside":[{
+     "reside_id":681
+}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数格式错误</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
 "admin_id":15658,
 "out_date":"2018-04-27",
 "out_type":"1",
 "house_status":"3",
 "tenancy_date":"1",
-"total_amount":"88888",
+"total_amount":"1000",
 "meter_list":[],
-"fee_list":[{
-}],
+"fee_list":[],
 "pay_log":[{
 "id":1,
-"amount":88888
+"amount":1000
 }],
 "receipt_remark":"备注"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款金额与订单金额不符</t>
+  </si>
+  <si>
+    <t>/rent/lessee/newInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_newinfo_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_detail_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单费用详情
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_fee_id":236
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/upRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_upremark_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单费用更新备注
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"id":236,
+"remark":"我是备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/addBill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_addbill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-添加账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"signing_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/billsubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_billsubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-提交添加账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":39,
+"bill_id_more":"1",
+"admin_id":15658,
+"description":"我是备注",
+"bill_fee":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-房源操作-租客信息-住户账单
+-ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2725,7 +2865,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2798,7 +2938,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2810,7 +2950,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2839,7 +2979,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -2921,10 +3061,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2936,7 +3076,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -3241,7 +3381,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3327,7 +3467,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3412,7 +3552,7 @@
         <v>88</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3772,7 +3912,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -3876,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3992,7 +4132,7 @@
         <v>116</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4087,7 +4227,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>101</v>
@@ -4099,7 +4239,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4128,7 +4268,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4137,7 +4277,7 @@
         <v>2202</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -4157,7 +4297,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4243,7 +4383,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4350,7 +4490,7 @@
         <v>126</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4457,7 +4597,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5298,10 +5438,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5363,7 +5503,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5375,26 +5515,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5404,10 +5534,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5454,22 +5584,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5481,26 +5611,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -5560,22 +5680,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5609,12 +5729,108 @@
       <c r="I4" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5720,7 +5936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5827,12 +6043,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5882,7 +6098,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>183</v>
+        <v>308</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5906,9 +6122,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
@@ -5916,29 +6133,18 @@
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5985,10 +6191,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5997,10 +6203,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6012,9 +6218,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="19"/>
@@ -6022,125 +6229,8 @@
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6231,10 +6321,106 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="24.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6281,22 +6467,229 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>169</v>
+        <v>293</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6332,11 +6725,116 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6386,12 +6884,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -6400,10 +6898,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6439,10 +6937,117 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6494,22 +7099,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>199</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6523,22 +7128,22 @@
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>199</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6567,7 +7172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6619,22 +7224,22 @@
     </row>
     <row r="2" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>203</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6666,583 +7271,6 @@
       <c r="G4" s="20"/>
       <c r="H4" s="18"/>
       <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="29.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="315" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="381" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="396" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7318,7 +7346,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7347,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7366,6 +7394,583 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="315" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="381" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="396" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7417,22 +8022,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>231</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7471,7 +8076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7523,10 +8128,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>234</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7535,10 +8140,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7577,12 +8182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7629,10 +8234,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7641,19 +8246,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
       <c r="H2" s="18">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7683,7 +8288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7735,10 +8340,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -7747,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7783,112 +8388,6 @@
       <c r="G4" s="33"/>
       <c r="H4" s="34"/>
       <c r="I4" s="35"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7964,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7989,6 +8488,112 @@
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8048,7 +8653,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -8057,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8077,7 +8682,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -8175,7 +8780,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8260,7 +8865,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="36" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="39" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -54,31 +54,32 @@
     <sheet name="rent_lessee_billsubmit" sheetId="97" r:id="rId40"/>
     <sheet name="rent_bill_detail" sheetId="93" r:id="rId41"/>
     <sheet name="rent_bill_upremark" sheetId="94" r:id="rId42"/>
-    <sheet name="Sheet4" sheetId="95" r:id="rId43"/>
-    <sheet name="rent_order_list" sheetId="51" r:id="rId44"/>
-    <sheet name="rent_order_add" sheetId="72" r:id="rId45"/>
-    <sheet name="rent_order_bill" sheetId="73" r:id="rId46"/>
-    <sheet name="rent_order_submit" sheetId="74" r:id="rId47"/>
-    <sheet name="rent_resideout_index" sheetId="76" r:id="rId48"/>
-    <sheet name="rent_resideout_damage" sheetId="77" r:id="rId49"/>
-    <sheet name="rent_resideout_bill" sheetId="78" r:id="rId50"/>
-    <sheet name="rent_resideout_submit" sheetId="79" r:id="rId51"/>
-    <sheet name="rent_checkout_index" sheetId="80" r:id="rId52"/>
-    <sheet name="rent_checkout_bill" sheetId="81" r:id="rId53"/>
-    <sheet name="rent_checkout_receipt" sheetId="91" r:id="rId54"/>
-    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId55"/>
-    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId56"/>
-    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId57"/>
-    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId58"/>
-    <sheet name="rent_home_signing" sheetId="83" r:id="rId59"/>
-    <sheet name="rent_repair_lists" sheetId="84" r:id="rId60"/>
+    <sheet name="rent_bill_newinfo" sheetId="95" r:id="rId43"/>
+    <sheet name="rent_fee_create" sheetId="98" r:id="rId44"/>
+    <sheet name="rent_order_list" sheetId="51" r:id="rId45"/>
+    <sheet name="rent_order_add" sheetId="72" r:id="rId46"/>
+    <sheet name="rent_order_bill" sheetId="73" r:id="rId47"/>
+    <sheet name="rent_order_submit" sheetId="74" r:id="rId48"/>
+    <sheet name="rent_resideout_index" sheetId="76" r:id="rId49"/>
+    <sheet name="rent_resideout_damage" sheetId="77" r:id="rId50"/>
+    <sheet name="rent_resideout_bill" sheetId="78" r:id="rId51"/>
+    <sheet name="rent_resideout_submit" sheetId="79" r:id="rId52"/>
+    <sheet name="rent_checkout_index" sheetId="80" r:id="rId53"/>
+    <sheet name="rent_checkout_bill" sheetId="81" r:id="rId54"/>
+    <sheet name="rent_checkout_receipt" sheetId="91" r:id="rId55"/>
+    <sheet name="rent_checkout_submit" sheetId="82" r:id="rId56"/>
+    <sheet name="rent_echeckout_index" sheetId="85" r:id="rId57"/>
+    <sheet name="rent_echeckout_bill" sheetId="86" r:id="rId58"/>
+    <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId59"/>
+    <sheet name="rent_home_signing" sheetId="83" r:id="rId60"/>
+    <sheet name="rent_repair_lists" sheetId="84" r:id="rId61"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="318">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2090,6 +2091,73 @@
     <t>管家-出租-房源操作-租客信息-住户账单
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/newInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单收款页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_newinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":"144",
+"type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":"100",
+"type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单不存在</t>
+  </si>
+  <si>
+    <t>/rent/fee/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"bill_fee_id":"94,95",
+"house_id ":1,
+"account_list":[{
+"id":4,
+"amount":500
+},{
+"id":65,
+"amount":30
+}],
+"receipt_time":"",
+"remark":"收款备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单信息错误</t>
   </si>
 </sst>
 </file>
@@ -5441,7 +5509,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6047,7 +6115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -6324,7 +6392,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6420,7 +6488,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6516,7 +6584,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6609,20 +6677,204 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="273" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6728,7 +6980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6831,113 +7083,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6991,12 +7136,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7005,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7044,10 +7189,117 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7154,112 +7406,6 @@
       <c r="I3" s="21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
@@ -7395,6 +7541,112 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7489,12 +7741,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7585,7 +7837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7681,7 +7933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7778,7 +8030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7874,7 +8126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -7963,112 +8215,6 @@
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8128,22 +8274,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8183,6 +8329,112 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -8281,113 +8533,6 @@
       <c r="G4" s="20"/>
       <c r="H4" s="18"/>
       <c r="I4" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8496,6 +8641,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="39" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="32" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -301,18 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"community_id":1017669,
-"unit_id":[0]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_rent
 _userlist_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1934,6 +1922,199 @@
     <t>参数格式错误</t>
   </si>
   <si>
+    <t>收款金额与订单金额不符</t>
+  </si>
+  <si>
+    <t>/rent/lessee/newInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_newinfo_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_detail_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单费用详情
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_fee_id":236
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/upRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_upremark_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单费用更新备注
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"id":236,
+"remark":"我是备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/addBill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_addbill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-添加账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"signing_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/billsubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_billsubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-提交添加账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":39,
+"bill_id_more":"1",
+"admin_id":15658,
+"description":"我是备注",
+"bill_fee":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-房源操作-租客信息-住户账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/newInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单收款页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_newinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":"144",
+"type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":"100",
+"type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单不存在</t>
+  </si>
+  <si>
+    <t>/rent/fee/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"bill_fee_id":"94,95",
+"house_id ":1,
+"account_list":[{
+"id":4,
+"amount":500
+},{
+"id":65,
+"amount":30
+}],
+"receipt_time":"",
+"remark":"收款备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单信息错误</t>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "2.2",
@@ -1957,15 +2138,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收款金额与订单金额不符</t>
-  </si>
-  <si>
-    <t>/rent/lessee/newInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_newinfo_01</t>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"community_id":1017669,
+"unit_id":[0]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1977,187 +2158,6 @@
 "house_id":23
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/bill/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_bill_detail_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单费用详情
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"bill_fee_id":236
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/bill/upRemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_bill_upremark_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单费用更新备注
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"id":236,
-"remark":"我是备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/lessee/addBill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_addbill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-添加账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"signing_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/lessee/billsubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_billsubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-提交添加账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"bill_id":39,
-"bill_id_more":"1",
-"admin_id":15658,
-"description":"我是备注",
-"bill_fee":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-房源操作-租客信息-住户账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/bill/newInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单收款页
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_bill_newinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"bill_id":"144",
-"type":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"bill_id":"100",
-"type":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单不存在</t>
-  </si>
-  <si>
-    <t>/rent/fee/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"bill_fee_id":"94,95",
-"house_id ":1,
-"account_list":[{
-"id":4,
-"amount":500
-},{
-"id":65,
-"amount":30
-}],
-"receipt_time":"",
-"remark":"收款备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单信息错误</t>
   </si>
 </sst>
 </file>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="2" spans="1:9" ht="361.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="3" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>2002</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3129,10 +3129,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3141,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -3234,10 +3234,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3319,22 +3319,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3343,27 +3343,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3434,22 +3434,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>80</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3520,22 +3520,22 @@
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3617,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3634,10 +3634,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3646,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3658,15 +3658,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>104</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -3846,27 +3846,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3887,15 +3887,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>24</v>
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3966,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -3980,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4084,15 +4084,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>24</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4185,10 +4185,10 @@
     </row>
     <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>118</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4292,22 +4292,22 @@
     </row>
     <row r="2" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4316,27 +4316,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4345,27 +4345,27 @@
         <v>2202</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4436,22 +4436,22 @@
     </row>
     <row r="2" spans="1:9" ht="313.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4543,22 +4543,22 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>126</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4650,22 +4650,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4674,27 +4674,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4775,23 +4775,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>137</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4882,22 +4882,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4989,22 +4989,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5096,10 +5096,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -5108,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5120,15 +5120,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>24</v>
@@ -5137,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5174,7 +5174,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5216,7 +5216,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
@@ -5227,7 +5227,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>50</v>
+        <v>316</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5306,23 +5306,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>157</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5330,27 +5330,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>156</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5431,23 +5431,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>163</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5455,27 +5455,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5484,7 +5484,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5556,11 +5556,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5568,10 +5568,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5604,8 +5604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5652,10 +5652,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5664,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5748,23 +5748,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>256</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5854,23 +5854,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5950,23 +5950,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>177</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6056,11 +6056,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -6068,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6163,10 +6163,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6175,10 +6175,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6259,10 +6259,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6271,11 +6271,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>302</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6345,7 +6345,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -6439,23 +6439,23 @@
     </row>
     <row r="2" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>307</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6535,10 +6535,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6547,11 +6547,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>293</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6631,23 +6631,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>298</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6680,7 +6680,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6727,10 +6727,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6739,11 +6739,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>312</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6751,27 +6751,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>310</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>313</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6793,7 +6793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6841,10 +6841,10 @@
     </row>
     <row r="2" spans="1:9" ht="273" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6853,10 +6853,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -6926,23 +6926,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>186</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7032,10 +7032,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7138,10 +7138,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7150,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7245,10 +7245,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7257,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7351,22 +7351,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>198</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7375,27 +7375,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>198</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7404,7 +7404,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -7472,7 +7472,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7492,7 +7492,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7521,7 +7521,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7591,22 +7591,22 @@
     </row>
     <row r="2" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>202</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7697,22 +7697,22 @@
     </row>
     <row r="2" spans="1:9" ht="315" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>207</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -7793,22 +7793,22 @@
     </row>
     <row r="2" spans="1:9" ht="381" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -7889,22 +7889,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>212</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -7938,7 +7938,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7985,10 +7985,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8082,23 +8082,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>280</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8178,10 +8178,10 @@
     </row>
     <row r="2" spans="1:9" ht="396" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>218</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -8190,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1000</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8274,22 +8274,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>230</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8380,10 +8380,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8486,10 +8486,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>24</v>
@@ -8498,10 +8498,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8608,7 +8608,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8689,10 +8689,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8796,23 +8796,23 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8894,7 +8894,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>23</v>
@@ -8902,10 +8902,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -8914,10 +8914,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8931,10 +8931,10 @@
     </row>
     <row r="3" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -8946,7 +8946,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -9017,10 +9017,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -9029,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -9102,10 +9102,10 @@
     </row>
     <row r="2" spans="1:9" ht="262.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>24</v>
@@ -9114,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="32" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="57" activeTab="60"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="322">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,11 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出租-分散式房态
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_subscribe_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,17 +259,6 @@
   </si>
   <si>
     <t>/rent/house/centralizedList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"search":{}
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,17 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":16363070
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间信息不存在</t>
   </si>
   <si>
@@ -586,28 +559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636307,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363070,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间状态异常</t>
   </si>
   <si>
@@ -621,17 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636306,
-"house_id":1636307
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>success</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -647,17 +587,6 @@
   <si>
     <t>guanjia_rent
 _change_check_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363060,
-"house_id":1636307
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1069,11 +998,6 @@
   </si>
   <si>
     <t>/rent/order/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-新增订单
--ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1373,22 +1297,6 @@
   </si>
   <si>
     <t>/rent/common/userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"new_house_id":1636306,
-"house_id":1636307,
-"house_status":2,
-"reside_list":[],
-"new_facility":[],
-"waiting_days":1
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1756,63 +1664,6 @@
   </si>
   <si>
     <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"reside_list":[681],
-"damage":{
-"facility":[],
-"repair":[]
-},
-"checkout_date":"2018-04-26"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"admin_id":15658,
-"reside_list": {
-        "681": {
-            "reside_id":"681",
-            "meter_list": [
-                 {
-          "unique_id":3482,
-                    "new_meter":5,
-                    "orders_remark":"",
-                    "amount":0
-                },
-                 {
-                    "unique_id":3483,
-                    "new_meter":5,
-                    "orders_remark":"",
-                    "amount":0
-                }
-            ],
-            "fee_list": [
-            ],
-            "total_amount":0,
-            "receipt_remark":"test",
-            "pay_log": [
-                 {
-                    "account_id":1,
-                    "account_amount":0
-                }
-            ]
-        }
-    },
-"checkout_date":"2018-04-26"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "source": 4,
 "version": "1.2.0",
 "site_id": 1,
@@ -2156,6 +2007,199 @@
 "site_id": 1,
 "timestamp":"",
 "house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管家端_出租_实时房态-分散式房态
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":163630700
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原房间签约记录不存在</t>
+  </si>
+  <si>
+    <t>管家-出租-房源操作-新增订单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"search":{
+"tenancy_type":2,
+"page":1
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"search":{
+"tenancy_type":1,
+"page":1
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"search":{
+"city_id":0,
+"county_id":0,
+"district_id":0,
+"community_id":0,
+"tenancy_type":0,
+"house_community":"接口",
+"house_status":1,
+"page":1
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636306,
+"house_id":1636307,
+"change_fee":100.0,
+"new_house_deposit":1000.0,
+"change_date":"2018-05-09"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363070,
+"house_id":1636307,
+"change_date":"2018-05-09"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636307,
+"house_id":1636307,
+"change_date":"2018-05-09"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636306,
+"house_id":1636307,
+"change_date":"2018-05-09"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363060,
+"house_id":1636307,
+"change_date":"2018-05-09"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"new_house_id":1636306,
+"house_id":1636307,
+"house_status":2,
+"waiting_days":1,
+"reside_list":[],
+"new_facility":[],
+"admin_id":15658,
+"change_date":"2018-05-09"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"reside_list":[681],
+"damage":{
+"facility":[],
+"repair":[]
+},
+"checkout_date":"2018-04-26"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"checkout_date":"2018-04-26",
+"house_id":1636343,
+"admin_id":15658,
+"reside_list": {
+"681": {
+"reside_id":"681",
+"meter_list": [],
+"fee_list": [
+            ],
+"total_amount":1000,
+"receipt_remark":"test",
+"pay_log": [{
+"account_id":5,                    "account_amount":1000                }],
+"receipt_time":1524903960
+        }
+    }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2723,74 +2767,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2910,30 +2954,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -2995,30 +3039,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="361.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3032,22 +3076,22 @@
     </row>
     <row r="3" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3056,7 +3100,7 @@
         <v>2002</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3121,30 +3165,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -3226,18 +3270,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3246,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3311,18 +3355,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3331,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3343,15 +3387,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3360,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3372,7 +3416,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3426,30 +3470,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3512,30 +3556,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3558,7 +3602,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3597,18 +3641,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3617,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3634,10 +3678,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3646,27 +3690,27 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
       </c>
       <c r="H3" s="18">
-        <v>2001</v>
+        <v>2501</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>94</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -3675,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3687,7 +3731,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3741,30 +3785,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3783,6 +3827,290 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2001</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2002</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="211.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="252.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -3826,30 +4154,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>109</v>
+        <v>317</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3858,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3866,19 +4194,19 @@
         <v>107</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3887,233 +4215,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
-    <col min="3" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="23.375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2001</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4177,30 +4279,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4209,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4245,7 +4347,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4284,30 +4386,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4316,27 +4418,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4345,27 +4447,27 @@
         <v>2202</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4374,7 +4476,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4428,30 +4530,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="313.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4460,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4535,30 +4637,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4567,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4642,30 +4744,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4674,15 +4776,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>0</v>
@@ -4691,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4703,7 +4805,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4767,18 +4869,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -4787,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4799,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4874,30 +4976,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4906,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4981,31 +5083,31 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5013,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5088,30 +5190,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5120,27 +5222,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>151</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5149,7 +5251,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5213,30 +5315,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5298,30 +5400,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5330,27 +5432,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5359,7 +5461,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5423,30 +5525,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5455,27 +5557,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5484,7 +5586,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5548,18 +5650,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5568,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5580,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5604,7 +5706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -5644,18 +5746,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5664,10 +5766,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5676,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5740,30 +5842,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5772,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5846,18 +5948,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5866,10 +5968,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5878,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5942,18 +6044,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5962,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5974,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6048,18 +6150,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6068,10 +6170,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6080,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6155,18 +6257,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6175,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6187,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6251,18 +6353,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6271,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6283,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6345,30 +6447,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -6431,30 +6533,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6463,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6527,18 +6629,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6547,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6559,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6623,30 +6725,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6655,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6719,18 +6821,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6739,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6751,15 +6853,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>0</v>
@@ -6768,10 +6870,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6780,7 +6882,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6833,18 +6935,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="273" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6853,10 +6955,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6865,7 +6967,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6918,18 +7020,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6938,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6950,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6985,7 +7087,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7024,18 +7126,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -7044,10 +7146,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7056,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7130,30 +7232,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7162,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7237,30 +7339,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7269,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7304,7 +7406,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7343,30 +7445,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7375,27 +7477,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7404,7 +7506,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -7469,10 +7571,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7492,7 +7594,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7521,7 +7623,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7541,10 +7643,10 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7583,30 +7685,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7615,29 +7717,8 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7647,10 +7728,10 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7689,30 +7770,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="315" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7721,19 +7802,8 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7743,10 +7813,10 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7785,30 +7855,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="381" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" ht="336" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7817,19 +7887,8 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7842,7 +7901,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7881,18 +7940,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -7901,10 +7960,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7913,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -7977,30 +8036,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8009,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8074,30 +8133,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8106,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8131,7 +8190,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8170,30 +8229,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="396" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8202,7 +8261,7 @@
         <v>1000</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8227,7 +8286,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8266,18 +8325,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -8286,10 +8345,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8298,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8333,7 +8392,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8372,30 +8431,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8404,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8478,30 +8537,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8510,7 +8569,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8585,10 +8644,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8608,7 +8667,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8642,7 +8701,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8681,18 +8740,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -8701,10 +8760,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8713,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8746,10 +8805,10 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8788,30 +8847,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8820,29 +8879,8 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8894,18 +8932,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -8914,10 +8952,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8931,10 +8969,10 @@
     </row>
     <row r="3" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -8946,7 +8984,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -9009,18 +9047,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -9029,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -9094,30 +9132,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="262.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="57" activeTab="60"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1546,65 +1546,7 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636308,
-"end_date":"2019-11-11",
-"first_end":"",
-"payment_type":1,
-"reside_list":[{
-"reside_id":1,
-"start_date":"2018-04-24",
-"end_date":"2019-11-11",
-"first_end":"2018-04-24",
-"payment_type":3,
-"is_fixed":1,
-"advance_month":1,
-"payment_day":5,
-"personal_deposit":800.0
-}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"user_id":566,
-"end_date":"2018-11-11",
-"first_end":"2018-02-11",
-"payment_type":1,
-"is_fixed":0,
-"advance_day":7,
-"reside_list":[],
-"salesman_id":8,
-"sign_admin":1,
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
 "house_id":1636559
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"contract_type":1,
-"house_id":1636559,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"payment_type":2
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2085,68 +2027,6 @@
   <si>
     <t>{
 "source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636306,
-"house_id":1636307,
-"change_fee":100.0,
-"new_house_deposit":1000.0,
-"change_date":"2018-05-09"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363070,
-"house_id":1636307,
-"change_date":"2018-05-09"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636307,
-"house_id":1636307,
-"change_date":"2018-05-09"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636306,
-"house_id":1636307,
-"change_date":"2018-05-09"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363060,
-"house_id":1636307,
-"change_date":"2018-05-09"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
@@ -2200,6 +2080,133 @@
 "receipt_time":1524903960
         }
     }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363070,
+"house_id":1636307,
+"change_date":"2018-05-11",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636307,
+"house_id":1636307,
+"change_date":"2018-05-11",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636306,
+"house_id":1636307,
+"change_fee":100.0,
+"new_house_deposit":1000.0,
+"change_date":"2018-05-11",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636306,
+"house_id":1636307,
+"change_date":"2018-05-11",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363060,
+"house_id":1636307,
+"change_date":"2018-05-11",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"end_date":"2019-11-11",
+"first_end":"",
+"payment_type":1,
+"reside_list":[{
+"reside_id":1,
+"start_date":"2018-04-24",
+"end_date":"2019-11-11",
+"first_end":"2018-04-24",
+"payment_type":3,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"personal_deposit":800.0
+}],
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"user_id":566,
+"end_date":"2018-11-11",
+"first_end":"2018-02-11",
+"payment_type":1,
+"is_fixed":0,
+"advance_day":7,
+"reside_list":[],
+"salesman_id":8,
+"sign_admin":1,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"payment_type":2,
+"admin_id":15658
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2914,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2977,7 +2984,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3062,7 +3069,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3091,7 +3098,7 @@
         <v>63</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3664,7 +3671,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3693,7 +3700,7 @@
         <v>85</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3702,7 +3709,7 @@
         <v>2501</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -3893,7 +3900,7 @@
         <v>98</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3922,7 +3929,7 @@
         <v>98</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3934,7 +3941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>103</v>
       </c>
@@ -3951,7 +3958,7 @@
         <v>98</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4021,7 +4028,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
         <v>231</v>
@@ -4033,7 +4040,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -4050,7 +4057,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>231</v>
@@ -4062,7 +4069,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4079,7 +4086,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>231</v>
@@ -4091,7 +4098,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4160,7 +4167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>107</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>108</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4409,7 +4416,7 @@
         <v>111</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4447,7 +4454,7 @@
         <v>2202</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -4488,10 +4495,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4553,7 +4560,7 @@
         <v>114</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4564,28 +4571,6 @@
       <c r="I2" s="21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4598,7 +4583,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4660,7 +4645,7 @@
         <v>118</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5338,7 +5323,7 @@
         <v>44</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5754,7 +5739,7 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>160</v>
@@ -5766,10 +5751,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6268,7 +6253,7 @@
         <v>174</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6361,10 +6346,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6373,10 +6358,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>285</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>288</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6541,22 +6526,22 @@
     </row>
     <row r="2" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>293</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6637,10 +6622,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6649,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6733,22 +6718,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>284</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6829,10 +6814,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6841,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>298</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6858,22 +6843,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>296</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>299</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6882,7 +6867,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -6943,10 +6928,10 @@
     </row>
     <row r="2" spans="1:9" ht="273" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6955,10 +6940,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6967,7 +6952,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7137,7 +7122,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -7793,7 +7778,7 @@
         <v>196</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7878,7 +7863,7 @@
         <v>199</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8059,7 +8044,7 @@
         <v>207</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8141,10 +8126,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>266</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>269</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>97</v>
@@ -8153,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8252,7 +8237,7 @@
         <v>208</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8261,7 +8246,7 @@
         <v>1000</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8560,7 +8545,7 @@
         <v>229</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8569,7 +8554,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8807,8 +8792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9070,7 +9055,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -9155,7 +9140,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -73,13 +73,14 @@
     <sheet name="rent_echeckout_submit" sheetId="87" r:id="rId59"/>
     <sheet name="rent_home_signing" sheetId="83" r:id="rId60"/>
     <sheet name="rent_repair_lists" sheetId="84" r:id="rId61"/>
+    <sheet name="rent_sign_submit_02" sheetId="99" r:id="rId62"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="327">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,16 +332,6 @@
   <si>
     <t>guanjia_rent
 _userlist_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"keyword":"18211078890"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1282,18 +1273,6 @@
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"keyword":"",
-"offset":"",
-"limit":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/rent/common/userList</t>
@@ -1552,35 +1531,6 @@
   </si>
   <si>
     <t>{
-"source": 4,
-"version": "1.2.0",
-"site_id": 1,
-"timestamp":"",
-"contract_type":1,
-"house_id":1636559,
-"user_id":15658,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"first_end":"2018-03-05",
-"payment_type":2,
-"is_fixed":1,
-"advance_month":1,
-"payment_day":5,
-"invoice_rate":3.0,
-"house_deposit":800.0,
-"facility":[],
-"fee_list":[],
-"salesman_id":1,
-"sign_admin":1,
-"admin_id":15658,
-"create_remark":"备注",
-"custom_rent":"5000",
-"supplement":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
@@ -1622,6 +1572,509 @@
 "amount":1000.0
 }],
 "remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_checkout_receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/checkout/receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"total_amount":1000.0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-退房-提交收款
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"out_date":"2018-04-27",
+"damage":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"orders_id":8320,
+"admin_id":15658,
+"house":[{
+      "out_type":1,
+      "status":3,
+      "tenancy_date":1
+      }],
+"reside":[{
+     "reside_id":681
+}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数格式错误</t>
+  </si>
+  <si>
+    <t>收款金额与订单金额不符</t>
+  </si>
+  <si>
+    <t>/rent/lessee/newInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_newinfo_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_detail_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单费用详情
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_fee_id":236
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/upRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_upremark_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单费用更新备注
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"id":236,
+"remark":"我是备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/addBill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_addbill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-添加账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"signing_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/lessee/billsubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_lessee_billsubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-提交添加账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":39,
+"bill_id_more":"1",
+"admin_id":15658,
+"description":"我是备注",
+"bill_fee":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-房源操作-租客信息-住户账单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/bill/newInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-账单收款页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_rent
+_bill_newinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":"144",
+"type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"bill_id":"100",
+"type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单不存在</t>
+  </si>
+  <si>
+    <t>/rent/fee/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"bill_fee_id":"94,95",
+"house_id ":1,
+"account_list":[{
+"id":4,
+"amount":500
+},{
+"id":65,
+"amount":30
+}],
+"receipt_time":"",
+"remark":"收款备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单信息错误</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"admin_id":15658,
+"out_date":"2018-04-27",
+"out_type":"1",
+"house_status":"3",
+"tenancy_date":"1",
+"total_amount":"1000",
+"meter_list":[],
+"fee_list":[],
+"pay_log":[{
+"id":1,
+"amount":1000
+}],
+"receipt_remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"community_id":1017669,
+"unit_id":[0]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":23
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管家端_出租_实时房态-分散式房态
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"house_id":163630700
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原房间签约记录不存在</t>
+  </si>
+  <si>
+    <t>管家-出租-房源操作-新增订单
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"search":{
+"tenancy_type":2,
+"page":1
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"search":{
+"tenancy_type":1,
+"page":1
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"search":{
+"city_id":0,
+"county_id":0,
+"district_id":0,
+"community_id":0,
+"tenancy_type":0,
+"house_community":"接口",
+"house_status":1,
+"page":1
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636343,
+"reside_list":[681],
+"damage":{
+"facility":[],
+"repair":[]
+},
+"checkout_date":"2018-04-26"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"checkout_date":"2018-04-26",
+"house_id":1636343,
+"admin_id":15658,
+"reside_list": {
+"681": {
+"reside_id":"681",
+"meter_list": [],
+"fee_list": [
+            ],
+"total_amount":1000,
+"receipt_remark":"test",
+"pay_log": [{
+"account_id":5,                    "account_amount":1000                }],
+"receipt_time":1524903960
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"end_date":"2019-11-11",
+"first_end":"",
+"payment_type":1,
+"reside_list":[{
+"reside_id":1,
+"start_date":"2018-04-24",
+"end_date":"2019-11-11",
+"first_end":"2018-04-24",
+"payment_type":3,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"personal_deposit":800.0
+}],
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"user_id":566,
+"end_date":"2018-11-11",
+"first_end":"2018-02-11",
+"payment_type":1,
+"is_fixed":0,
+"advance_day":7,
+"reside_list":[],
+"salesman_id":8,
+"sign_admin":1,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"payment_type":2,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1",
+"site_id": 1,
+"timestamp":"",
+"keyword":"",
+"offset":"",
+"limit":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1",
+"site_id": 1,
+"timestamp":"",
+"keyword":"18211078890"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1",
+"site_id": 1,
+"timestamp":"",
+"keyword":"刘昱良"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1655,12 +2108,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1636559,
+"user_id":15658,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"invoice_rate":3.0,
+"house_deposit":800.0,
+"facility":[],
+"fee_list":[],
+"salesman_id":1,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":"5000",
+"supplement":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>guanjia_rent
-_checkout_receipt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/checkout/receipt</t>
+_sign_submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-出租-签约-提交（电子合同/房间id:1639749）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"contract_type":1,
+"house_id":1639749,
+"user_id":1569,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"invoice_rate":3.0,
+"house_deposit":800.0,
+"facility":[],
+"fee_list":[],
+"salesman_id":1,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":"5000",
+"supplement":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.2",
+"site_id": 1,
+"timestamp":"",
+"contract_type":2,
+"house_id":1639749,
+"user_id":1569,
+"start_date":"2017-12-6",
+"end_date":"2018-12-5",
+"first_end":"2018-03-05",
+"payment_type":2,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"invoice_rate":3.0,
+"house_deposit":800.0,
+"facility":[],
+"fee_list":[],
+"salesman_id":1,
+"sign_admin":1,
+"admin_id":15658,
+"create_remark":"备注",
+"custom_rent":"5000",
+"next_period_no":1,
+"image_id":"",
+"supplement":[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636306,
+"house_id":1636307,
+"change_fee":100.0,
+"new_house_deposit":1000.0,
+"change_date":"2018-06-11",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363070,
+"house_id":1636307,
+"change_date":"2018-06-11",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636307,
+"house_id":1636307,
+"change_date":"2018-06-11",
+"admin_id":15658
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1669,14 +2252,11 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636343,
-"total_amount":1000.0
+"new_house_id":1636306,
+"house_id":1636307,
+"change_date":"2018-06-11",
+"admin_id":15658
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-退房-提交收款
--ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1685,342 +2265,10 @@
 "version": "1.1.0",
 "site_id": 1,
 "timestamp":"",
-"house_id":1636343,
-"out_date":"2018-04-27",
-"damage":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"orders_id":8320,
-"admin_id":15658,
-"house":[{
-      "out_type":1,
-      "status":3,
-      "tenancy_date":1
-      }],
-"reside":[{
-     "reside_id":681
-}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数格式错误</t>
-  </si>
-  <si>
-    <t>收款金额与订单金额不符</t>
-  </si>
-  <si>
-    <t>/rent/lessee/newInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_newinfo_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/bill/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_bill_detail_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单费用详情
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"bill_fee_id":236
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/bill/upRemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_bill_upremark_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单费用更新备注
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"id":236,
-"remark":"我是备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/lessee/addBill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_addbill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-添加账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"signing_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/lessee/billsubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_lessee_billsubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-提交添加账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"bill_id":39,
-"bill_id_more":"1",
-"admin_id":15658,
-"description":"我是备注",
-"bill_fee":[]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-房源操作-租客信息-住户账单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/bill/newInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-出租-账单收款页
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_rent
-_bill_newinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"bill_id":"144",
-"type":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"bill_id":"100",
-"type":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单不存在</t>
-  </si>
-  <si>
-    <t>/rent/fee/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"bill_fee_id":"94,95",
-"house_id ":1,
-"account_list":[{
-"id":4,
-"amount":500
-},{
-"id":65,
-"amount":30
-}],
-"receipt_time":"",
-"remark":"收款备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单信息错误</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"admin_id":15658,
-"out_date":"2018-04-27",
-"out_type":"1",
-"house_status":"3",
-"tenancy_date":"1",
-"total_amount":"1000",
-"meter_list":[],
-"fee_list":[],
-"pay_log":[{
-"id":1,
-"amount":1000
-}],
-"receipt_remark":"备注"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"community_id":1017669,
-"unit_id":[0]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":23
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">管家端_出租_实时房态-分散式房态
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"house_id":163630700
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原房间签约记录不存在</t>
-  </si>
-  <si>
-    <t>管家-出租-房源操作-新增订单
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"search":{
-"tenancy_type":2,
-"page":1
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"search":{
-"tenancy_type":1,
-"page":1
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"search":{
-"city_id":0,
-"county_id":0,
-"district_id":0,
-"community_id":0,
-"tenancy_type":0,
-"house_community":"接口",
-"house_status":1,
-"page":1
-}
+"new_house_id":16363060,
+"house_id":1636307,
+"change_date":"2018-06-11",
+"admin_id":15658
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2038,175 +2286,7 @@
 "reside_list":[],
 "new_facility":[],
 "admin_id":15658,
-"change_date":"2018-05-09"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636343,
-"reside_list":[681],
-"damage":{
-"facility":[],
-"repair":[]
-},
-"checkout_date":"2018-04-26"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.2",
-"site_id": 1,
-"timestamp":"",
-"checkout_date":"2018-04-26",
-"house_id":1636343,
-"admin_id":15658,
-"reside_list": {
-"681": {
-"reside_id":"681",
-"meter_list": [],
-"fee_list": [
-            ],
-"total_amount":1000,
-"receipt_remark":"test",
-"pay_log": [{
-"account_id":5,                    "account_amount":1000                }],
-"receipt_time":1524903960
-        }
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363070,
-"house_id":1636307,
-"change_date":"2018-05-11",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636307,
-"house_id":1636307,
-"change_date":"2018-05-11",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636306,
-"house_id":1636307,
-"change_fee":100.0,
-"new_house_deposit":1000.0,
-"change_date":"2018-05-11",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636306,
-"house_id":1636307,
-"change_date":"2018-05-11",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363060,
-"house_id":1636307,
-"change_date":"2018-05-11",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"end_date":"2019-11-11",
-"first_end":"",
-"payment_type":1,
-"reside_list":[{
-"reside_id":1,
-"start_date":"2018-04-24",
-"end_date":"2019-11-11",
-"first_end":"2018-04-24",
-"payment_type":3,
-"is_fixed":1,
-"advance_month":1,
-"payment_day":5,
-"personal_deposit":800.0
-}],
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"user_id":566,
-"end_date":"2018-11-11",
-"first_end":"2018-02-11",
-"payment_type":1,
-"is_fixed":0,
-"advance_day":7,
-"reside_list":[],
-"salesman_id":8,
-"sign_admin":1,
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"contract_type":1,
-"house_id":1636559,
-"start_date":"2017-12-6",
-"end_date":"2018-12-5",
-"payment_type":2,
-"admin_id":15658
+"change_date":"2018-06-09"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2921,7 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2969,10 +3049,10 @@
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
@@ -2981,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3004,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3054,10 +3134,10 @@
     </row>
     <row r="2" spans="1:9" ht="361.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
@@ -3066,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3083,10 +3163,10 @@
     </row>
     <row r="3" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>23</v>
@@ -3095,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3107,19 +3187,8 @@
         <v>2002</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3180,10 +3249,10 @@
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
@@ -3192,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -3285,10 +3354,10 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3297,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3370,22 +3439,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3394,27 +3463,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3423,7 +3492,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3485,22 +3554,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3571,22 +3640,22 @@
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3656,10 +3725,10 @@
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3668,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3685,10 +3754,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -3697,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3709,15 +3778,15 @@
         <v>2501</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -3726,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3738,7 +3807,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3753,7 +3822,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3800,22 +3869,22 @@
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3837,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3885,10 +3954,10 @@
     </row>
     <row r="2" spans="1:9" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>100</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
@@ -3897,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3909,15 +3978,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>23</v>
@@ -3926,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3938,15 +4007,15 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>23</v>
@@ -3955,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -3967,7 +4036,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4028,10 +4097,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -4040,7 +4109,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -4057,10 +4126,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
@@ -4069,7 +4138,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4086,10 +4155,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
@@ -4098,7 +4167,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4122,7 +4191,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4169,10 +4238,10 @@
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
@@ -4181,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4193,15 +4262,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>23</v>
@@ -4210,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4222,7 +4291,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4247,7 +4316,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4294,10 +4363,10 @@
     </row>
     <row r="2" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
@@ -4306,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4318,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4353,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4401,22 +4470,22 @@
     </row>
     <row r="2" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4425,27 +4494,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4454,27 +4523,27 @@
         <v>2202</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4483,7 +4552,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4545,22 +4614,22 @@
     </row>
     <row r="2" spans="1:9" ht="313.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4569,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4699,22 @@
     </row>
     <row r="2" spans="1:9" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>118</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4654,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4737,22 +4806,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4761,27 +4830,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4790,7 +4859,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4862,23 +4931,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -4886,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4969,22 +5038,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4993,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5076,22 +5145,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5100,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5183,10 +5252,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>23</v>
@@ -5195,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5207,15 +5276,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>139</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>23</v>
@@ -5224,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5236,7 +5305,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5314,7 +5383,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
@@ -5323,7 +5392,7 @@
         <v>44</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5393,23 +5462,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5417,27 +5486,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>148</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5446,7 +5515,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5518,23 +5587,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>155</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5542,27 +5611,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -5571,7 +5640,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5643,11 +5712,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>160</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -5655,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5667,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5739,10 +5808,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -5751,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5763,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -5835,22 +5904,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -5859,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5941,23 +6010,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -5965,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6037,23 +6106,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6061,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6143,11 +6212,11 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -6155,10 +6224,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6167,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6250,10 +6319,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6262,10 +6331,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6274,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6346,10 +6415,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6358,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6370,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6526,23 +6595,23 @@
     </row>
     <row r="2" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>290</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6550,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6622,10 +6691,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6634,10 +6703,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6646,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6718,23 +6787,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>281</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -6742,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -6814,10 +6883,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -6826,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6838,15 +6907,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>0</v>
@@ -6855,10 +6924,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>296</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -6867,7 +6936,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6928,22 +6997,22 @@
     </row>
     <row r="2" spans="1:9" ht="273" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>298</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -6952,7 +7021,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7013,23 +7082,23 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>178</v>
-      </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
@@ -7037,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7119,10 +7188,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -7131,10 +7200,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7143,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7225,10 +7294,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>23</v>
@@ -7237,10 +7306,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7249,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7332,10 +7401,10 @@
     </row>
     <row r="2" spans="1:9" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>23</v>
@@ -7344,10 +7413,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7356,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7438,22 +7507,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>189</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7462,27 +7531,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>189</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7491,7 +7560,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -7516,7 +7585,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7579,7 +7648,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7608,7 +7677,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -7678,22 +7747,22 @@
     </row>
     <row r="2" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>193</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7702,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7763,22 +7832,22 @@
     </row>
     <row r="2" spans="1:9" ht="315" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>198</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7787,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7848,22 +7917,22 @@
     </row>
     <row r="2" spans="1:9" ht="336" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7872,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7933,22 +8002,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>203</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -7957,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8029,10 +8098,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>23</v>
@@ -8041,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8053,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8126,22 +8195,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8150,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8222,10 +8291,10 @@
     </row>
     <row r="2" spans="1:9" ht="396" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>210</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>23</v>
@@ -8234,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8246,7 +8315,7 @@
         <v>1000</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8318,22 +8387,22 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>221</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8342,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8424,10 +8493,10 @@
     </row>
     <row r="2" spans="1:9" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>23</v>
@@ -8436,10 +8505,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8448,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8530,10 +8599,10 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>23</v>
@@ -8542,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8554,7 +8623,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8652,7 +8721,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8733,10 +8802,10 @@
     </row>
     <row r="2" spans="1:9" ht="239.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -8745,10 +8814,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8757,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -8840,22 +8909,107 @@
     </row>
     <row r="2" spans="1:9" ht="291.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>217</v>
       </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="20.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="351" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>317</v>
+      </c>
       <c r="B2" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>97</v>
+        <v>318</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8863,8 +9017,37 @@
       <c r="H2" s="18">
         <v>0</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>104</v>
+      <c r="I2" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="393" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8875,10 +9058,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8928,7 +9111,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -8937,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -8957,7 +9140,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -8969,7 +9152,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -8978,6 +9161,35 @@
         <v>0</v>
       </c>
       <c r="I3" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9055,7 +9267,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -9125,10 +9337,10 @@
     </row>
     <row r="2" spans="1:9" ht="262.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
@@ -9137,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="59" activeTab="62"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -74,13 +74,15 @@
     <sheet name="rent_home_signing" sheetId="83" r:id="rId60"/>
     <sheet name="rent_repair_lists" sheetId="84" r:id="rId61"/>
     <sheet name="rent_sign_submit_02" sheetId="99" r:id="rId62"/>
+    <sheet name="lease_sign_getperson" sheetId="100" r:id="rId63"/>
+    <sheet name="Sheet2" sheetId="101" r:id="rId64"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="334">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2289,6 +2291,52 @@
 "change_date":"2018-06-09"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_getpersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-通过门店获取人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/getPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"shop_id":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"shop_id":6464
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"real_name":"刘大大",
+"mobile":"16601115658"
+}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2451,7 +2499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2562,6 +2610,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4422,8 +4473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8446,7 +8497,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8861,8 +8912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8946,7 +8997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -9052,6 +9103,142 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="59" activeTab="62"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="66" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -75,14 +75,21 @@
     <sheet name="rent_repair_lists" sheetId="84" r:id="rId61"/>
     <sheet name="rent_sign_submit_02" sheetId="99" r:id="rId62"/>
     <sheet name="lease_sign_getperson" sheetId="100" r:id="rId63"/>
-    <sheet name="Sheet2" sheetId="101" r:id="rId64"/>
+    <sheet name="lease_sign_lists" sheetId="101" r:id="rId64"/>
+    <sheet name="lease_sign_close" sheetId="102" r:id="rId65"/>
+    <sheet name="lease_sign_add" sheetId="103" r:id="rId66"/>
+    <sheet name="lease_sign_addlease" sheetId="104" r:id="rId67"/>
+    <sheet name="lease_sign_finduser" sheetId="105" r:id="rId68"/>
+    <sheet name="lease_sign_landlordadd" sheetId="106" r:id="rId69"/>
+    <sheet name="lease_sign_show" sheetId="107" r:id="rId70"/>
+    <sheet name="lease_sign_labeldo" sheetId="108" r:id="rId71"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="373">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2208,6 +2215,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>guanjia_lease_sign_getpersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-通过门店获取人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/getPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"shop_id":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"shop_id":6464
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect
+Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"real_name":"刘大大",
+"mobile":"16601115658"
+}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-租约列表-web-租约列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-租约列表-web-我的租约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"action":"lists"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"action":"checkLease"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"page":1,
+"page_size":1,
+"action":"myLists"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":16363070,
+"house_id":1636307,
+"change_date":"",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"new_house_id":1636307,
+"house_id":1636307,
+"change_date":"",
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "2.1.0",
@@ -2217,33 +2351,7 @@
 "house_id":1636307,
 "change_fee":100.0,
 "new_house_deposit":1000.0,
-"change_date":"2018-06-11",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":16363070,
-"house_id":1636307,
-"change_date":"2018-06-11",
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"new_house_id":1636307,
-"house_id":1636307,
-"change_date":"2018-06-11",
+"change_date":"",
 "admin_id":15658
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2256,7 +2364,7 @@
 "timestamp":"",
 "new_house_id":1636306,
 "house_id":1636307,
-"change_date":"2018-06-11",
+"change_date":"",
 "admin_id":15658
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2269,7 +2377,7 @@
 "timestamp":"",
 "new_house_id":16363060,
 "house_id":1636307,
-"change_date":"2018-06-11",
+"change_date":"",
 "admin_id":15658
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2288,55 +2396,202 @@
 "reside_list":[],
 "new_facility":[],
 "admin_id":15658,
-"change_date":"2018-06-09"
+"change_date":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>guanjia_lease_sign_getpersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家-租入-租入租约-通过门店获取人员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lease/signing/getPerson</t>
+    <t>/lease/signing/close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-关闭租约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
+"timestamp":"",
 "site_id": 1,
-"timestamp":"",
 "admin_id":15658,
-"shop_id":2
+"id":
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-添加租约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
+"timestamp":"",
 "site_id": 1,
+"admin_id":15658,
+"type_id":1,
+"house_id":1640612
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/addLease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_addlease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-待添加租约列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
 "timestamp":"",
+"site_id": 1,
 "admin_id":15658,
-"shop_id":6464
+"page":1,
+"page_size":3
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Expect
-Result</t>
+    <t>/lease/signing/findUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_finduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-选择房东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-"real_name":"刘大大",
-"mobile":"16601115658"
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"is_landlord":1,
+"page":1,
+"page_size":3,
+"keyword":"166011156589"
 }</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/landlordAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_landlordadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-用户添加银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"user_id":2390,
+"bank_account":"古老的L",
+"bank_name":"古老的行",
+"bank_card_no":1234567890
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-租约列表-web-待审批租约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-查看/审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"id":12488888
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"id":1248
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-标注异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"signing_id":1246,
+"type_id":1,
+"remark":"备注"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/labelDo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_labeldo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3729,7 +3984,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3957,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4020,7 +4275,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4049,7 +4304,7 @@
         <v>97</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4078,7 +4333,7 @@
         <v>97</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4242,7 +4497,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4304,7 +4559,7 @@
         <v>104</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4333,7 +4588,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4367,7 +4622,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4429,7 +4684,7 @@
         <v>107</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -9111,8 +9366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9159,15 +9414,15 @@
         <v>22</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -9176,10 +9431,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -9194,10 +9449,10 @@
     </row>
     <row r="3" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>0</v>
@@ -9206,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -9221,7 +9476,7 @@
         <v>103</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -9232,12 +9487,605 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9384,6 +10232,219 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2804</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="8.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="24" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/case/guanjia_new.xlsx
+++ b/testData/case/guanjia_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="66" activeTab="70"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="66" activeTab="68"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -76,20 +76,27 @@
     <sheet name="rent_sign_submit_02" sheetId="99" r:id="rId62"/>
     <sheet name="lease_sign_getperson" sheetId="100" r:id="rId63"/>
     <sheet name="lease_sign_lists" sheetId="101" r:id="rId64"/>
-    <sheet name="lease_sign_close" sheetId="102" r:id="rId65"/>
+    <sheet name="lease_sign_addlease" sheetId="104" r:id="rId65"/>
     <sheet name="lease_sign_add" sheetId="103" r:id="rId66"/>
-    <sheet name="lease_sign_addlease" sheetId="104" r:id="rId67"/>
-    <sheet name="lease_sign_finduser" sheetId="105" r:id="rId68"/>
-    <sheet name="lease_sign_landlordadd" sheetId="106" r:id="rId69"/>
-    <sheet name="lease_sign_show" sheetId="107" r:id="rId70"/>
-    <sheet name="lease_sign_labeldo" sheetId="108" r:id="rId71"/>
+    <sheet name="lease_sign_doadd" sheetId="114" r:id="rId67"/>
+    <sheet name="lease_sign_edit" sheetId="112" r:id="rId68"/>
+    <sheet name="lease_sign_doedit" sheetId="113" r:id="rId69"/>
+    <sheet name="lease_sign_close" sheetId="102" r:id="rId70"/>
+    <sheet name="lease_sign_finduser" sheetId="105" r:id="rId71"/>
+    <sheet name="lease_sign_landlordadd" sheetId="106" r:id="rId72"/>
+    <sheet name="lease_sign_show" sheetId="107" r:id="rId73"/>
+    <sheet name="lease_sign_labeldo" sheetId="108" r:id="rId74"/>
+    <sheet name="lease_sign_cost" sheetId="109" r:id="rId75"/>
+    <sheet name="lease_sign_docost" sheetId="110" r:id="rId76"/>
+    <sheet name="lease_sign_bill" sheetId="115" r:id="rId77"/>
+    <sheet name="lease_sign_docheck" sheetId="116" r:id="rId78"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="413">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +168,6 @@
   </si>
   <si>
     <t>/rent/common/userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/house/scatList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1928,20 +1931,6 @@
 "timestamp":"",
 "admin_id":15658,
 "search":{
-"tenancy_type":1,
-"page":1
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "2.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
-"search":{
 "city_id":0,
 "county_id":0,
 "district_id":0,
@@ -1992,51 +1981,6 @@
 "receipt_time":1524903960
         }
     }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"end_date":"2019-11-11",
-"first_end":"",
-"payment_type":1,
-"reside_list":[{
-"reside_id":1,
-"start_date":"2018-04-24",
-"end_date":"2019-11-11",
-"first_end":"2018-04-24",
-"payment_type":3,
-"is_fixed":1,
-"advance_month":1,
-"payment_day":5,
-"personal_deposit":800.0
-}],
-"admin_id":15658
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":1636308,
-"user_id":566,
-"end_date":"2018-11-11",
-"first_end":"2018-02-11",
-"payment_type":1,
-"is_fixed":0,
-"advance_day":7,
-"reside_list":[],
-"salesman_id":8,
-"sign_admin":1,
-"admin_id":15658
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2233,17 +2177,6 @@
 "site_id": 1,
 "timestamp":"",
 "admin_id":15658,
-"shop_id":2
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":15658,
 "shop_id":6464
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2413,17 +2346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"timestamp":"",
-"site_id": 1,
-"admin_id":15658,
-"id":
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/lease/signing/add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2433,18 +2355,6 @@
   </si>
   <si>
     <t>管家-租入-租入租约-添加租约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"timestamp":"",
-"site_id": 1,
-"admin_id":15658,
-"type_id":1,
-"house_id":1640612
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2573,6 +2483,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>guanjia_lease_sign_labeldo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"end_date":"2019-11-11",
+"first_end":"",
+"payment_type":1,
+"reside_list":[{
+"reside_id":1,
+"start_date":"2018-04-24",
+"end_date":"2019-11-11",
+"first_end":"2018-04-24",
+"payment_type":3,
+"is_fixed":1,
+"advance_month":1,
+"payment_day":5,
+"personal_deposit":800.0
+}],
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"house_id":1636308,
+"user_id":566,
+"end_date":"2018-11-11",
+"first_end":"2018-02-11",
+"payment_type":1,
+"is_fixed":0,
+"advance_day":7,
+"reside_list":[],
+"salesman_id":8,
+"sign_admin":1,
+"admin_id":15658
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/labelDo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
@@ -2581,16 +2544,355 @@
 "admin_id":15658,
 "signing_id":1246,
 "type_id":1,
+"remark":"标注异常"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"signing_id":1246,
+"type_id":2,
+"remark":"解除异常"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-费用成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"id":124812345678
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"id":1248
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/doCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-提交费用成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_docost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"data":{
+"signing_id":1248,
+"type_id":[],
+"fee_id":[],
+"amount":[],
+"remark":[]
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/doEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_doedit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-提交编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/house/scatterHouseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/house/scatterHouseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rent/house/scatterHouseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "2.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"search":{
+"tenancy_type":1,
+"page":1
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_doadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-提交添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/doAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lease/signing/bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"type_id":1,
+"house_rent":[{"amount":500,"free_days":1}],
+"start_date":"2018-06-01",
+"end_date":"2019-07-01",
+"period_month":1,
+"payment_date":{"is_fixed":0,"advance_day":7,"advance_month":"","payment_day":""},
+"fee_list":[{"fee_id":1,"mode_id":1,"amount":100,"meter":1,"orders_remark":"备注"}],
+"first_end":"2018-07-01"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lease/signing/doCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_lease_sign_docheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-租入-租入租约-提交审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"signing_id":1248,
+"status":1,
 "remark":"备注"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/lease/signing/labelDo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_lease_sign_labeldo</t>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"id":124888888888
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"id":1248
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"timestamp":"",
+"admin_id":15658,
+"shop_id":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"type_id":1,
+"house_id":1640616
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"type_id":1,
+"house_id":1640616,
+"data":{
+"house_id":1640616,
+"l_house_id":null,
+"direction":1,
+"total_floor":32,
+"curr_floor":21,
+"area":108,
+"room_amount":3,
+"hall_amount":2,
+"toilet_amount":1,
+"kitchen_amount":1,
+"balcony_amount":1,
+"decorate_type":1,
+"contract_no":"",
+"year":2018
+}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"action":"edit",
+"id":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"timestamp":"",
+"site_id": 1,
+"admin_id":15658,
+"signing_id":"",
+"num":1,
+"data":{
+"action":"myLists",
+"house_id":1640616,
+"direction":1,
+"total_floor":32,
+"curr_floor":21,
+"area":108,
+"room_amount":3,
+"hall_amount":2,
+"toilet_amount":1,
+"kitchen_amount":1,
+"decorate_type":1,
+"contract_no":null,
+"balcony_amount":1,
+"year":2018
+}
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3160,74 +3462,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -3347,30 +3649,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3432,30 +3734,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="361.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3469,22 +3771,22 @@
     </row>
     <row r="3" spans="1:9" ht="379.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3493,7 +3795,7 @@
         <v>2002</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3547,30 +3849,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>239</v>
-      </c>
       <c r="C2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="18">
@@ -3652,18 +3954,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -3672,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3737,30 +4039,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3769,27 +4071,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -3798,7 +4100,7 @@
         <v>2105</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3852,30 +4154,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -3938,30 +4240,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="399.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4023,18 +4325,18 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -4043,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4060,10 +4362,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>0</v>
@@ -4072,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4084,15 +4386,15 @@
         <v>2501</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>0</v>
@@ -4101,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4113,7 +4415,7 @@
         <v>2502</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4167,30 +4469,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4252,30 +4554,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>99</v>
-      </c>
       <c r="C2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4284,27 +4586,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4313,27 +4615,27 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4342,7 +4644,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4355,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4392,30 +4694,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="211.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>387</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -4429,22 +4731,22 @@
     </row>
     <row r="3" spans="1:9" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>18</v>
+        <v>388</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4458,22 +4760,22 @@
     </row>
     <row r="4" spans="1:9" ht="252.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G4" s="20">
         <v>0</v>
@@ -4536,30 +4838,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
@@ -4568,27 +4870,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G3" s="20">
         <v>0</v>
@@ -4597,7 +4899,7 @@
         <v>2001</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -4661,30 +4963,30 @@
         <v>4</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="25" t=